--- a/로컬전원장치.xlsx
+++ b/로컬전원장치.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="576" yWindow="72" windowWidth="22008" windowHeight="9432" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="576" yWindow="72" windowWidth="22008" windowHeight="9432" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F103ZET_메모리맵" sheetId="1" r:id="rId1"/>
@@ -3952,6 +3952,105 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4033,45 +4132,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4090,53 +4219,86 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -4144,176 +4306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4722,12 +4722,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
       <c r="F2" s="7"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4744,18 +4744,18 @@
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="205"/>
+      <c r="E3" s="238"/>
       <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="220" t="s">
+      <c r="G3" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="J3" s="14"/>
       <c r="K3" s="1" t="s">
         <v>13</v>
@@ -4766,16 +4766,16 @@
       <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214">
+      <c r="E4" s="246"/>
+      <c r="F4" s="247">
         <v>2</v>
       </c>
-      <c r="G4" s="222"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="224"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="13"/>
       <c r="K4" s="1"/>
     </row>
@@ -4786,28 +4786,28 @@
       <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="227"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="260"/>
       <c r="J5" s="13"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="19"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="215"/>
-      <c r="F6" s="216">
+      <c r="E6" s="248"/>
+      <c r="F6" s="249">
         <v>2</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="227"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="260"/>
       <c r="J6" s="13"/>
       <c r="K6" s="1"/>
     </row>
@@ -4818,28 +4818,28 @@
       <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="230"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="263"/>
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="206" t="s">
+      <c r="D8" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="217" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="207"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="242"/>
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
@@ -4850,28 +4850,28 @@
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="209"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="242"/>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="218"/>
-      <c r="F10" s="219" t="s">
+      <c r="E10" s="251"/>
+      <c r="F10" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="210"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="212"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="245"/>
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
     </row>
@@ -4882,28 +4882,28 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="212"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="245"/>
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="238"/>
-      <c r="F12" s="240" t="s">
+      <c r="E12" s="233"/>
+      <c r="F12" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="231"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="233"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="228"/>
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
     </row>
@@ -4914,12 +4914,12 @@
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="236"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="229"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="231"/>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
     </row>
@@ -4929,9 +4929,9 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
@@ -5015,6 +5015,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I7"/>
     <mergeCell ref="G12:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D12:E13"/>
@@ -5031,8 +5033,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5045,7 +5045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -5144,2234 +5144,2234 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="303">
-        <v>1</v>
-      </c>
-      <c r="C4" s="304" t="s">
+      <c r="B4" s="204">
+        <v>1</v>
+      </c>
+      <c r="C4" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="304" t="s">
+      <c r="D4" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="205" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="303">
+      <c r="G4" s="204">
         <v>37</v>
       </c>
-      <c r="H4" s="304" t="s">
+      <c r="H4" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="306" t="s">
+      <c r="I4" s="207" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="306" t="s">
+      <c r="J4" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="K4" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="308">
+      <c r="L4" s="209">
         <v>73</v>
       </c>
-      <c r="M4" s="304" t="s">
+      <c r="M4" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="306" t="s">
+      <c r="N4" s="207" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="306" t="s">
+      <c r="O4" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="309" t="s">
+      <c r="P4" s="210" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="308">
+      <c r="Q4" s="209">
         <v>109</v>
       </c>
-      <c r="R4" s="304" t="s">
+      <c r="R4" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="304" t="s">
+      <c r="S4" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="304" t="s">
+      <c r="T4" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="U4" s="309" t="s">
+      <c r="U4" s="210" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="310">
+      <c r="B5" s="211">
         <v>2</v>
       </c>
-      <c r="C5" s="311" t="s">
+      <c r="C5" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="311" t="s">
+      <c r="D5" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="311" t="s">
+      <c r="E5" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="312" t="s">
+      <c r="F5" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="310">
+      <c r="G5" s="211">
         <v>38</v>
       </c>
-      <c r="H5" s="311" t="s">
+      <c r="H5" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="313" t="s">
+      <c r="I5" s="214" t="s">
         <v>407</v>
       </c>
-      <c r="J5" s="311" t="s">
+      <c r="J5" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="314" t="s">
+      <c r="K5" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="315">
+      <c r="L5" s="216">
         <v>74</v>
       </c>
-      <c r="M5" s="311" t="s">
+      <c r="M5" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="313" t="s">
+      <c r="N5" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="313" t="s">
+      <c r="O5" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="316" t="s">
+      <c r="P5" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="315">
+      <c r="Q5" s="216">
         <v>110</v>
       </c>
-      <c r="R5" s="311" t="s">
+      <c r="R5" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="311" t="s">
+      <c r="S5" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="311" t="s">
+      <c r="T5" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="316" t="s">
+      <c r="U5" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="310">
+      <c r="B6" s="211">
         <v>3</v>
       </c>
-      <c r="C6" s="311" t="s">
+      <c r="C6" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="311" t="s">
+      <c r="D6" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="311" t="s">
+      <c r="E6" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="312" t="s">
+      <c r="F6" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="310">
+      <c r="G6" s="211">
         <v>39</v>
       </c>
-      <c r="H6" s="311" t="s">
+      <c r="H6" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="313" t="s">
+      <c r="I6" s="214" t="s">
         <v>402</v>
       </c>
-      <c r="J6" s="311" t="s">
+      <c r="J6" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="314" t="s">
+      <c r="K6" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="315">
+      <c r="L6" s="216">
         <v>75</v>
       </c>
-      <c r="M6" s="311" t="s">
+      <c r="M6" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="313" t="s">
+      <c r="N6" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="313" t="s">
+      <c r="O6" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="316" t="s">
+      <c r="P6" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q6" s="315">
+      <c r="Q6" s="216">
         <v>111</v>
       </c>
-      <c r="R6" s="311" t="s">
+      <c r="R6" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="S6" s="311" t="s">
+      <c r="S6" s="212" t="s">
         <v>106</v>
       </c>
-      <c r="T6" s="311" t="s">
+      <c r="T6" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="314" t="s">
+      <c r="U6" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="310">
+      <c r="B7" s="211">
         <v>4</v>
       </c>
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="311" t="s">
+      <c r="D7" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="311" t="s">
+      <c r="E7" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="312" t="s">
+      <c r="F7" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="310">
+      <c r="G7" s="211">
         <v>40</v>
       </c>
-      <c r="H7" s="311" t="s">
+      <c r="H7" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="313" t="s">
+      <c r="I7" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="311" t="s">
+      <c r="J7" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="314" t="s">
+      <c r="K7" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="315">
+      <c r="L7" s="216">
         <v>76</v>
       </c>
-      <c r="M7" s="311" t="s">
+      <c r="M7" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="313" t="s">
+      <c r="N7" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="O7" s="313" t="s">
+      <c r="O7" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="316" t="s">
+      <c r="P7" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="315">
+      <c r="Q7" s="216">
         <v>112</v>
       </c>
-      <c r="R7" s="311" t="s">
+      <c r="R7" s="212" t="s">
         <v>113</v>
       </c>
-      <c r="S7" s="311" t="s">
+      <c r="S7" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="311" t="s">
+      <c r="T7" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="314" t="s">
+      <c r="U7" s="215" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="310">
+      <c r="B8" s="211">
         <v>5</v>
       </c>
-      <c r="C8" s="311" t="s">
+      <c r="C8" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="311" t="s">
+      <c r="D8" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="311" t="s">
+      <c r="E8" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="312" t="s">
+      <c r="F8" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="310">
+      <c r="G8" s="211">
         <v>41</v>
       </c>
-      <c r="H8" s="311" t="s">
+      <c r="H8" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="313" t="s">
+      <c r="I8" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="311" t="s">
+      <c r="J8" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="314" t="s">
+      <c r="K8" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="315">
+      <c r="L8" s="216">
         <v>77</v>
       </c>
-      <c r="M8" s="311" t="s">
+      <c r="M8" s="212" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="311" t="s">
+      <c r="N8" s="212" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="311" t="s">
+      <c r="O8" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="314" t="s">
+      <c r="P8" s="215" t="s">
         <v>120</v>
       </c>
-      <c r="Q8" s="315">
+      <c r="Q8" s="216">
         <v>113</v>
       </c>
-      <c r="R8" s="311" t="s">
+      <c r="R8" s="212" t="s">
         <v>121</v>
       </c>
-      <c r="S8" s="313" t="s">
+      <c r="S8" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="T8" s="313" t="s">
+      <c r="T8" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="U8" s="316" t="s">
+      <c r="U8" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="310">
+      <c r="B9" s="211">
         <v>6</v>
       </c>
-      <c r="C9" s="311" t="s">
+      <c r="C9" s="212" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="313" t="s">
+      <c r="D9" s="214" t="s">
         <v>402</v>
       </c>
-      <c r="E9" s="311" t="s">
+      <c r="E9" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="312" t="s">
+      <c r="F9" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="310">
+      <c r="G9" s="211">
         <v>42</v>
       </c>
-      <c r="H9" s="311" t="s">
+      <c r="H9" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="313" t="s">
+      <c r="I9" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="311" t="s">
+      <c r="J9" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="314" t="s">
+      <c r="K9" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="315">
+      <c r="L9" s="216">
         <v>78</v>
       </c>
-      <c r="M9" s="311" t="s">
+      <c r="M9" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="311" t="s">
+      <c r="N9" s="212" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="311" t="s">
+      <c r="O9" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="314" t="s">
+      <c r="P9" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="315">
+      <c r="Q9" s="216">
         <v>114</v>
       </c>
-      <c r="R9" s="311" t="s">
+      <c r="R9" s="212" t="s">
         <v>128</v>
       </c>
-      <c r="S9" s="311" t="s">
+      <c r="S9" s="212" t="s">
         <v>129</v>
       </c>
-      <c r="T9" s="311" t="s">
+      <c r="T9" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="314" t="s">
+      <c r="U9" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="310">
+      <c r="B10" s="211">
         <v>7</v>
       </c>
-      <c r="C10" s="311" t="s">
+      <c r="C10" s="212" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="311" t="s">
+      <c r="D10" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="311" t="s">
+      <c r="E10" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="312" t="s">
+      <c r="F10" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="310">
+      <c r="G10" s="211">
         <v>43</v>
       </c>
-      <c r="H10" s="311" t="s">
+      <c r="H10" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="313" t="s">
+      <c r="I10" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="311" t="s">
+      <c r="J10" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="314" t="s">
+      <c r="K10" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="315">
+      <c r="L10" s="216">
         <v>79</v>
       </c>
-      <c r="M10" s="311" t="s">
+      <c r="M10" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="311" t="s">
+      <c r="N10" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="O10" s="311" t="s">
+      <c r="O10" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="314" t="s">
+      <c r="P10" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="315">
+      <c r="Q10" s="216">
         <v>115</v>
       </c>
-      <c r="R10" s="311" t="s">
+      <c r="R10" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="311" t="s">
+      <c r="S10" s="212" t="s">
         <v>138</v>
       </c>
-      <c r="T10" s="311" t="s">
+      <c r="T10" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="U10" s="314" t="s">
+      <c r="U10" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="310">
+      <c r="B11" s="211">
         <v>8</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="313" t="s">
+      <c r="D11" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="311" t="s">
+      <c r="E11" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="312" t="s">
+      <c r="F11" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="310">
+      <c r="G11" s="211">
         <v>44</v>
       </c>
-      <c r="H11" s="311" t="s">
+      <c r="H11" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="313" t="s">
+      <c r="I11" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="311" t="s">
+      <c r="J11" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="314" t="s">
+      <c r="K11" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="315">
+      <c r="L11" s="216">
         <v>80</v>
       </c>
-      <c r="M11" s="311" t="s">
+      <c r="M11" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="313" t="s">
+      <c r="N11" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="O11" s="313" t="s">
+      <c r="O11" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="P11" s="316" t="s">
+      <c r="P11" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="315">
+      <c r="Q11" s="216">
         <v>116</v>
       </c>
-      <c r="R11" s="311" t="s">
+      <c r="R11" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="311" t="s">
+      <c r="S11" s="212" t="s">
         <v>144</v>
       </c>
-      <c r="T11" s="311" t="s">
+      <c r="T11" s="212" t="s">
         <v>145</v>
       </c>
-      <c r="U11" s="314" t="s">
+      <c r="U11" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="310">
+      <c r="B12" s="211">
         <v>9</v>
       </c>
-      <c r="C12" s="311" t="s">
+      <c r="C12" s="212" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="313" t="s">
+      <c r="D12" s="214" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="311" t="s">
+      <c r="E12" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="312" t="s">
+      <c r="F12" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="310">
+      <c r="G12" s="211">
         <v>45</v>
       </c>
-      <c r="H12" s="311" t="s">
+      <c r="H12" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="313" t="s">
+      <c r="I12" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="311" t="s">
+      <c r="J12" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="314" t="s">
+      <c r="K12" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="315">
+      <c r="L12" s="216">
         <v>81</v>
       </c>
-      <c r="M12" s="311" t="s">
+      <c r="M12" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="313" t="s">
+      <c r="N12" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="O12" s="313" t="s">
+      <c r="O12" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="316" t="s">
+      <c r="P12" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" s="315">
+      <c r="Q12" s="216">
         <v>117</v>
       </c>
-      <c r="R12" s="311" t="s">
+      <c r="R12" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="311" t="s">
+      <c r="S12" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="T12" s="311" t="s">
+      <c r="T12" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="U12" s="314" t="s">
+      <c r="U12" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="310">
+      <c r="B13" s="211">
         <v>10</v>
       </c>
-      <c r="C13" s="311" t="s">
+      <c r="C13" s="212" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="311" t="s">
+      <c r="D13" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="311" t="s">
+      <c r="E13" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="312" t="s">
+      <c r="F13" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="310">
+      <c r="G13" s="211">
         <v>46</v>
       </c>
-      <c r="H13" s="311" t="s">
+      <c r="H13" s="212" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="313" t="s">
+      <c r="I13" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="311" t="s">
+      <c r="J13" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="314" t="s">
+      <c r="K13" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="L13" s="315">
+      <c r="L13" s="216">
         <v>82</v>
       </c>
-      <c r="M13" s="311" t="s">
+      <c r="M13" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="313" t="s">
+      <c r="N13" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="O13" s="313" t="s">
+      <c r="O13" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="P13" s="316" t="s">
+      <c r="P13" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="315">
+      <c r="Q13" s="216">
         <v>118</v>
       </c>
-      <c r="R13" s="311" t="s">
+      <c r="R13" s="212" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="311" t="s">
+      <c r="S13" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="311" t="s">
+      <c r="T13" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="314" t="s">
+      <c r="U13" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="310">
+      <c r="B14" s="211">
         <v>11</v>
       </c>
-      <c r="C14" s="311" t="s">
+      <c r="C14" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="311" t="s">
+      <c r="D14" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="311" t="s">
+      <c r="E14" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="312" t="s">
+      <c r="F14" s="213" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="310">
+      <c r="G14" s="211">
         <v>47</v>
       </c>
-      <c r="H14" s="311" t="s">
+      <c r="H14" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="313" t="s">
+      <c r="I14" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="311" t="s">
+      <c r="J14" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="314" t="s">
+      <c r="K14" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="315">
+      <c r="L14" s="216">
         <v>83</v>
       </c>
-      <c r="M14" s="311" t="s">
+      <c r="M14" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="313" t="s">
+      <c r="N14" s="214" t="s">
         <v>412</v>
       </c>
-      <c r="O14" s="311" t="s">
+      <c r="O14" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="P14" s="316" t="s">
+      <c r="P14" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q14" s="315">
+      <c r="Q14" s="216">
         <v>119</v>
       </c>
-      <c r="R14" s="311" t="s">
+      <c r="R14" s="212" t="s">
         <v>76</v>
       </c>
-      <c r="S14" s="311" t="s">
+      <c r="S14" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="T14" s="311" t="s">
+      <c r="T14" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="314" t="s">
+      <c r="U14" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="310">
+      <c r="B15" s="211">
         <v>12</v>
       </c>
-      <c r="C15" s="311" t="s">
+      <c r="C15" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="311" t="s">
+      <c r="D15" s="212" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="311" t="s">
+      <c r="E15" s="212" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="312" t="s">
+      <c r="F15" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="310">
+      <c r="G15" s="211">
         <v>48</v>
       </c>
-      <c r="H15" s="311" t="s">
+      <c r="H15" s="212" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="311" t="s">
+      <c r="I15" s="212" t="s">
         <v>275</v>
       </c>
-      <c r="J15" s="311" t="s">
+      <c r="J15" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="314" t="s">
+      <c r="K15" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="315">
+      <c r="L15" s="216">
         <v>84</v>
       </c>
-      <c r="M15" s="311" t="s">
+      <c r="M15" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="N15" s="313" t="s">
+      <c r="N15" s="214" t="s">
         <v>408</v>
       </c>
-      <c r="O15" s="311" t="s">
+      <c r="O15" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="P15" s="316" t="s">
+      <c r="P15" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="315">
+      <c r="Q15" s="216">
         <v>120</v>
       </c>
-      <c r="R15" s="311" t="s">
+      <c r="R15" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="S15" s="313" t="s">
+      <c r="S15" s="214" t="s">
         <v>405</v>
       </c>
-      <c r="T15" s="311" t="s">
+      <c r="T15" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="U15" s="316" t="s">
+      <c r="U15" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="310">
+      <c r="B16" s="211">
         <v>13</v>
       </c>
-      <c r="C16" s="311" t="s">
+      <c r="C16" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="311" t="s">
+      <c r="D16" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="311" t="s">
+      <c r="E16" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="312" t="s">
+      <c r="F16" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="310">
+      <c r="G16" s="211">
         <v>49</v>
       </c>
-      <c r="H16" s="311" t="s">
+      <c r="H16" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="313" t="s">
+      <c r="I16" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="311" t="s">
+      <c r="J16" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="314" t="s">
+      <c r="K16" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="L16" s="315">
+      <c r="L16" s="216">
         <v>85</v>
       </c>
-      <c r="M16" s="311" t="s">
+      <c r="M16" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="N16" s="313" t="s">
+      <c r="N16" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="O16" s="313" t="s">
+      <c r="O16" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="316" t="s">
+      <c r="P16" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q16" s="315">
+      <c r="Q16" s="216">
         <v>121</v>
       </c>
-      <c r="R16" s="311" t="s">
+      <c r="R16" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="S16" s="313" t="s">
+      <c r="S16" s="214" t="s">
         <v>410</v>
       </c>
-      <c r="T16" s="311" t="s">
+      <c r="T16" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="U16" s="316" t="s">
+      <c r="U16" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="310">
+      <c r="B17" s="211">
         <v>14</v>
       </c>
-      <c r="C17" s="311" t="s">
+      <c r="C17" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="311" t="s">
+      <c r="D17" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="311" t="s">
+      <c r="E17" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="312" t="s">
+      <c r="F17" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="310">
+      <c r="G17" s="211">
         <v>50</v>
       </c>
-      <c r="H17" s="311" t="s">
+      <c r="H17" s="212" t="s">
         <v>174</v>
       </c>
-      <c r="I17" s="313" t="s">
+      <c r="I17" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="311" t="s">
+      <c r="J17" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="314" t="s">
+      <c r="K17" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="315">
+      <c r="L17" s="216">
         <v>86</v>
       </c>
-      <c r="M17" s="311" t="s">
+      <c r="M17" s="212" t="s">
         <v>175</v>
       </c>
-      <c r="N17" s="311" t="s">
+      <c r="N17" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="O17" s="311" t="s">
+      <c r="O17" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="314" t="s">
+      <c r="P17" s="215" t="s">
         <v>177</v>
       </c>
-      <c r="Q17" s="315">
+      <c r="Q17" s="216">
         <v>122</v>
       </c>
-      <c r="R17" s="311" t="s">
+      <c r="R17" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="S17" s="311" t="s">
+      <c r="S17" s="212" t="s">
         <v>179</v>
       </c>
-      <c r="T17" s="311" t="s">
+      <c r="T17" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="U17" s="314" t="s">
+      <c r="U17" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="310">
+      <c r="B18" s="211">
         <v>15</v>
       </c>
-      <c r="C18" s="311" t="s">
+      <c r="C18" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="311" t="s">
+      <c r="D18" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="311" t="s">
+      <c r="E18" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="312" t="s">
+      <c r="F18" s="213" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="310">
+      <c r="G18" s="211">
         <v>51</v>
       </c>
-      <c r="H18" s="311" t="s">
+      <c r="H18" s="212" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="313" t="s">
+      <c r="I18" s="214" t="s">
         <v>403</v>
       </c>
-      <c r="J18" s="311" t="s">
+      <c r="J18" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="314" t="s">
+      <c r="K18" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="315">
+      <c r="L18" s="216">
         <v>87</v>
       </c>
-      <c r="M18" s="311" t="s">
+      <c r="M18" s="212" t="s">
         <v>183</v>
       </c>
-      <c r="N18" s="313" t="s">
+      <c r="N18" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="313" t="s">
+      <c r="O18" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="316" t="s">
+      <c r="P18" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q18" s="315">
+      <c r="Q18" s="216">
         <v>123</v>
       </c>
-      <c r="R18" s="311" t="s">
+      <c r="R18" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="S18" s="311" t="s">
+      <c r="S18" s="212" t="s">
         <v>185</v>
       </c>
-      <c r="T18" s="311" t="s">
+      <c r="T18" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="U18" s="314" t="s">
+      <c r="U18" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="310">
+      <c r="B19" s="211">
         <v>16</v>
       </c>
-      <c r="C19" s="311" t="s">
+      <c r="C19" s="212" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="311" t="s">
+      <c r="D19" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="311" t="s">
+      <c r="E19" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="312" t="s">
+      <c r="F19" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="310">
+      <c r="G19" s="211">
         <v>52</v>
       </c>
-      <c r="H19" s="311" t="s">
+      <c r="H19" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="313" t="s">
+      <c r="I19" s="214" t="s">
         <v>408</v>
       </c>
-      <c r="J19" s="311" t="s">
+      <c r="J19" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="314" t="s">
+      <c r="K19" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="315">
+      <c r="L19" s="216">
         <v>88</v>
       </c>
-      <c r="M19" s="311" t="s">
+      <c r="M19" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="313" t="s">
+      <c r="N19" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="O19" s="313" t="s">
+      <c r="O19" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="316" t="s">
+      <c r="P19" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q19" s="315">
+      <c r="Q19" s="216">
         <v>124</v>
       </c>
-      <c r="R19" s="311" t="s">
+      <c r="R19" s="212" t="s">
         <v>188</v>
       </c>
-      <c r="S19" s="313" t="s">
+      <c r="S19" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="T19" s="313" t="s">
+      <c r="T19" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="U19" s="316" t="s">
+      <c r="U19" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="310">
+      <c r="B20" s="211">
         <v>17</v>
       </c>
-      <c r="C20" s="311" t="s">
+      <c r="C20" s="212" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="311" t="s">
+      <c r="D20" s="212" t="s">
         <v>402</v>
       </c>
-      <c r="E20" s="311" t="s">
+      <c r="E20" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="312" t="s">
+      <c r="F20" s="213" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="310">
+      <c r="G20" s="211">
         <v>53</v>
       </c>
-      <c r="H20" s="311" t="s">
+      <c r="H20" s="212" t="s">
         <v>190</v>
       </c>
-      <c r="I20" s="313" t="s">
+      <c r="I20" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="311" t="s">
+      <c r="J20" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="K20" s="314" t="s">
+      <c r="K20" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="L20" s="315">
+      <c r="L20" s="216">
         <v>89</v>
       </c>
-      <c r="M20" s="311" t="s">
+      <c r="M20" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="313" t="s">
+      <c r="N20" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="313" t="s">
+      <c r="O20" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="316" t="s">
+      <c r="P20" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q20" s="315">
+      <c r="Q20" s="216">
         <v>125</v>
       </c>
-      <c r="R20" s="311" t="s">
+      <c r="R20" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="S20" s="313" t="s">
+      <c r="S20" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="T20" s="313" t="s">
+      <c r="T20" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="U20" s="316" t="s">
+      <c r="U20" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="310">
+      <c r="B21" s="211">
         <v>18</v>
       </c>
-      <c r="C21" s="311" t="s">
+      <c r="C21" s="212" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="311" t="s">
+      <c r="D21" s="212" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="311" t="s">
+      <c r="E21" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="312" t="s">
+      <c r="F21" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="310">
+      <c r="G21" s="211">
         <v>54</v>
       </c>
-      <c r="H21" s="311" t="s">
+      <c r="H21" s="212" t="s">
         <v>193</v>
       </c>
-      <c r="I21" s="313" t="s">
+      <c r="I21" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="311" t="s">
+      <c r="J21" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="314" t="s">
+      <c r="K21" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="315">
+      <c r="L21" s="216">
         <v>90</v>
       </c>
-      <c r="M21" s="311" t="s">
+      <c r="M21" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="313" t="s">
+      <c r="N21" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="313" t="s">
+      <c r="O21" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="P21" s="316" t="s">
+      <c r="P21" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="315">
+      <c r="Q21" s="216">
         <v>126</v>
       </c>
-      <c r="R21" s="311" t="s">
+      <c r="R21" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="S21" s="313" t="s">
+      <c r="S21" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="T21" s="313" t="s">
+      <c r="T21" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="U21" s="316" t="s">
+      <c r="U21" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="310">
+      <c r="B22" s="211">
         <v>19</v>
       </c>
-      <c r="C22" s="311" t="s">
+      <c r="C22" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="311" t="s">
+      <c r="D22" s="212" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="311" t="s">
+      <c r="E22" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="312" t="s">
+      <c r="F22" s="213" t="s">
         <v>195</v>
       </c>
-      <c r="G22" s="310">
+      <c r="G22" s="211">
         <v>55</v>
       </c>
-      <c r="H22" s="311" t="s">
+      <c r="H22" s="212" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="313" t="s">
+      <c r="I22" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="311" t="s">
+      <c r="J22" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="314" t="s">
+      <c r="K22" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="315">
+      <c r="L22" s="216">
         <v>91</v>
       </c>
-      <c r="M22" s="311" t="s">
+      <c r="M22" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="313" t="s">
+      <c r="N22" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="313" t="s">
+      <c r="O22" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="316" t="s">
+      <c r="P22" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="315">
+      <c r="Q22" s="216">
         <v>127</v>
       </c>
-      <c r="R22" s="311" t="s">
+      <c r="R22" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="S22" s="313" t="s">
+      <c r="S22" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="T22" s="313" t="s">
+      <c r="T22" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="U22" s="316" t="s">
+      <c r="U22" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="310">
+      <c r="B23" s="211">
         <v>20</v>
       </c>
-      <c r="C23" s="311" t="s">
+      <c r="C23" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="311" t="s">
+      <c r="D23" s="212" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="311" t="s">
+      <c r="E23" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="312" t="s">
+      <c r="F23" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="310">
+      <c r="G23" s="211">
         <v>56</v>
       </c>
-      <c r="H23" s="311" t="s">
+      <c r="H23" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="313" t="s">
+      <c r="I23" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="311" t="s">
+      <c r="J23" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="K23" s="314" t="s">
+      <c r="K23" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="L23" s="315">
+      <c r="L23" s="216">
         <v>92</v>
       </c>
-      <c r="M23" s="311" t="s">
+      <c r="M23" s="212" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="313" t="s">
+      <c r="N23" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="O23" s="313" t="s">
+      <c r="O23" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="P23" s="316" t="s">
+      <c r="P23" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="315">
+      <c r="Q23" s="216">
         <v>128</v>
       </c>
-      <c r="R23" s="311" t="s">
+      <c r="R23" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="313" t="s">
+      <c r="S23" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="T23" s="313" t="s">
+      <c r="T23" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="316" t="s">
+      <c r="U23" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="310">
+      <c r="B24" s="211">
         <v>21</v>
       </c>
-      <c r="C24" s="311" t="s">
+      <c r="C24" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="311" t="s">
+      <c r="D24" s="212" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="311" t="s">
+      <c r="E24" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="312" t="s">
+      <c r="F24" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="310">
+      <c r="G24" s="211">
         <v>57</v>
       </c>
-      <c r="H24" s="311" t="s">
+      <c r="H24" s="212" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="313" t="s">
+      <c r="I24" s="214" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="311" t="s">
+      <c r="J24" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="314" t="s">
+      <c r="K24" s="215" t="s">
         <v>132</v>
       </c>
-      <c r="L24" s="315">
+      <c r="L24" s="216">
         <v>93</v>
       </c>
-      <c r="M24" s="311" t="s">
+      <c r="M24" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="313" t="s">
+      <c r="N24" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="O24" s="313" t="s">
+      <c r="O24" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="P24" s="316" t="s">
+      <c r="P24" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q24" s="315">
+      <c r="Q24" s="216">
         <v>129</v>
       </c>
-      <c r="R24" s="311" t="s">
+      <c r="R24" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="S24" s="313" t="s">
+      <c r="S24" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="T24" s="313" t="s">
+      <c r="T24" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="U24" s="316" t="s">
+      <c r="U24" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="310">
+      <c r="B25" s="211">
         <v>22</v>
       </c>
-      <c r="C25" s="311" t="s">
+      <c r="C25" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="311" t="s">
+      <c r="D25" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="311" t="s">
+      <c r="E25" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="312" t="s">
+      <c r="F25" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="310">
+      <c r="G25" s="211">
         <v>58</v>
       </c>
-      <c r="H25" s="311" t="s">
+      <c r="H25" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="I25" s="311" t="s">
+      <c r="I25" s="212" t="s">
         <v>205</v>
       </c>
-      <c r="J25" s="311" t="s">
+      <c r="J25" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="K25" s="314" t="s">
+      <c r="K25" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="315">
+      <c r="L25" s="216">
         <v>94</v>
       </c>
-      <c r="M25" s="311" t="s">
+      <c r="M25" s="212" t="s">
         <v>207</v>
       </c>
-      <c r="N25" s="313" t="s">
+      <c r="N25" s="214" t="s">
         <v>414</v>
       </c>
-      <c r="O25" s="311" t="s">
+      <c r="O25" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="316" t="s">
+      <c r="P25" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q25" s="315">
+      <c r="Q25" s="216">
         <v>130</v>
       </c>
-      <c r="R25" s="311" t="s">
+      <c r="R25" s="212" t="s">
         <v>208</v>
       </c>
-      <c r="S25" s="313" t="s">
+      <c r="S25" s="214" t="s">
         <v>414</v>
       </c>
-      <c r="T25" s="311" t="s">
+      <c r="T25" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="U25" s="316" t="s">
+      <c r="U25" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="310">
+      <c r="B26" s="211">
         <v>23</v>
       </c>
-      <c r="C26" s="311" t="s">
+      <c r="C26" s="212" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="311" t="s">
+      <c r="D26" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="311" t="s">
+      <c r="E26" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="312" t="s">
+      <c r="F26" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="310">
+      <c r="G26" s="211">
         <v>59</v>
       </c>
-      <c r="H26" s="311" t="s">
+      <c r="H26" s="212" t="s">
         <v>211</v>
       </c>
-      <c r="I26" s="313" t="s">
+      <c r="I26" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="J26" s="311" t="s">
+      <c r="J26" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="314" t="s">
+      <c r="K26" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="L26" s="315">
+      <c r="L26" s="216">
         <v>95</v>
       </c>
-      <c r="M26" s="311" t="s">
+      <c r="M26" s="212" t="s">
         <v>212</v>
       </c>
-      <c r="N26" s="313" t="s">
+      <c r="N26" s="214" t="s">
         <v>402</v>
       </c>
-      <c r="O26" s="311" t="s">
+      <c r="O26" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="P26" s="316" t="s">
+      <c r="P26" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q26" s="315">
+      <c r="Q26" s="216">
         <v>131</v>
       </c>
-      <c r="R26" s="311" t="s">
+      <c r="R26" s="212" t="s">
         <v>213</v>
       </c>
-      <c r="S26" s="313" t="s">
+      <c r="S26" s="214" t="s">
         <v>411</v>
       </c>
-      <c r="T26" s="311" t="s">
+      <c r="T26" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="U26" s="316" t="s">
+      <c r="U26" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="310">
+      <c r="B27" s="211">
         <v>24</v>
       </c>
-      <c r="C27" s="311" t="s">
+      <c r="C27" s="212" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="311" t="s">
+      <c r="D27" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="311" t="s">
+      <c r="E27" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="312" t="s">
+      <c r="F27" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="310">
+      <c r="G27" s="211">
         <v>60</v>
       </c>
-      <c r="H27" s="311" t="s">
+      <c r="H27" s="212" t="s">
         <v>215</v>
       </c>
-      <c r="I27" s="313" t="s">
+      <c r="I27" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="J27" s="311" t="s">
+      <c r="J27" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="314" t="s">
+      <c r="K27" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="315">
+      <c r="L27" s="216">
         <v>96</v>
       </c>
-      <c r="M27" s="311" t="s">
+      <c r="M27" s="212" t="s">
         <v>216</v>
       </c>
-      <c r="N27" s="313" t="s">
+      <c r="N27" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="O27" s="313" t="s">
+      <c r="O27" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="P27" s="316" t="s">
+      <c r="P27" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q27" s="315">
+      <c r="Q27" s="216">
         <v>132</v>
       </c>
-      <c r="R27" s="311" t="s">
+      <c r="R27" s="212" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="313" t="s">
+      <c r="S27" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="T27" s="313" t="s">
+      <c r="T27" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="U27" s="316" t="s">
+      <c r="U27" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="310">
+      <c r="B28" s="211">
         <v>25</v>
       </c>
-      <c r="C28" s="311" t="s">
+      <c r="C28" s="212" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="311" t="s">
+      <c r="D28" s="212" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="311" t="s">
+      <c r="E28" s="212" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="312" t="s">
+      <c r="F28" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="310">
+      <c r="G28" s="211">
         <v>61</v>
       </c>
-      <c r="H28" s="311" t="s">
+      <c r="H28" s="212" t="s">
         <v>221</v>
       </c>
-      <c r="I28" s="313" t="s">
+      <c r="I28" s="214" t="s">
         <v>412</v>
       </c>
-      <c r="J28" s="311" t="s">
+      <c r="J28" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="314" t="s">
+      <c r="K28" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="L28" s="315">
+      <c r="L28" s="216">
         <v>97</v>
       </c>
-      <c r="M28" s="311" t="s">
+      <c r="M28" s="212" t="s">
         <v>222</v>
       </c>
-      <c r="N28" s="313" t="s">
+      <c r="N28" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="O28" s="313" t="s">
+      <c r="O28" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="P28" s="316" t="s">
+      <c r="P28" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q28" s="315">
+      <c r="Q28" s="216">
         <v>133</v>
       </c>
-      <c r="R28" s="311" t="s">
+      <c r="R28" s="212" t="s">
         <v>223</v>
       </c>
-      <c r="S28" s="311" t="s">
+      <c r="S28" s="212" t="s">
         <v>224</v>
       </c>
-      <c r="T28" s="311" t="s">
+      <c r="T28" s="212" t="s">
         <v>225</v>
       </c>
-      <c r="U28" s="316" t="s">
+      <c r="U28" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="310">
+      <c r="B29" s="211">
         <v>26</v>
       </c>
-      <c r="C29" s="311" t="s">
+      <c r="C29" s="212" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="311" t="s">
+      <c r="D29" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="313" t="s">
+      <c r="E29" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="312" t="s">
+      <c r="F29" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="310">
+      <c r="G29" s="211">
         <v>62</v>
       </c>
-      <c r="H29" s="311" t="s">
+      <c r="H29" s="212" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="313" t="s">
+      <c r="I29" s="214" t="s">
         <v>406</v>
       </c>
-      <c r="J29" s="311" t="s">
+      <c r="J29" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="314" t="s">
+      <c r="K29" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="L29" s="315">
+      <c r="L29" s="216">
         <v>98</v>
       </c>
-      <c r="M29" s="311" t="s">
+      <c r="M29" s="212" t="s">
         <v>228</v>
       </c>
-      <c r="N29" s="313" t="s">
+      <c r="N29" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="O29" s="313" t="s">
+      <c r="O29" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="P29" s="316" t="s">
+      <c r="P29" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q29" s="315">
+      <c r="Q29" s="216">
         <v>134</v>
       </c>
-      <c r="R29" s="311" t="s">
+      <c r="R29" s="212" t="s">
         <v>229</v>
       </c>
-      <c r="S29" s="311" t="s">
+      <c r="S29" s="212" t="s">
         <v>230</v>
       </c>
-      <c r="T29" s="311" t="s">
+      <c r="T29" s="212" t="s">
         <v>231</v>
       </c>
-      <c r="U29" s="316" t="s">
+      <c r="U29" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="310">
+      <c r="B30" s="211">
         <v>27</v>
       </c>
-      <c r="C30" s="311" t="s">
+      <c r="C30" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="311" t="s">
+      <c r="D30" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="313" t="s">
+      <c r="E30" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="312" t="s">
+      <c r="F30" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="310">
+      <c r="G30" s="211">
         <v>63</v>
       </c>
-      <c r="H30" s="311" t="s">
+      <c r="H30" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="I30" s="313" t="s">
+      <c r="I30" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="311" t="s">
+      <c r="J30" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="K30" s="314" t="s">
+      <c r="K30" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="L30" s="315">
+      <c r="L30" s="216">
         <v>99</v>
       </c>
-      <c r="M30" s="311" t="s">
+      <c r="M30" s="212" t="s">
         <v>233</v>
       </c>
-      <c r="N30" s="313" t="s">
+      <c r="N30" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="O30" s="313" t="s">
+      <c r="O30" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="P30" s="316" t="s">
+      <c r="P30" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q30" s="315">
+      <c r="Q30" s="216">
         <v>135</v>
       </c>
-      <c r="R30" s="311" t="s">
+      <c r="R30" s="212" t="s">
         <v>82</v>
       </c>
-      <c r="S30" s="313" t="s">
+      <c r="S30" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="T30" s="313" t="s">
+      <c r="T30" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="U30" s="316" t="s">
+      <c r="U30" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="310">
+      <c r="B31" s="211">
         <v>28</v>
       </c>
-      <c r="C31" s="311" t="s">
+      <c r="C31" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="311" t="s">
+      <c r="D31" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="313" t="s">
+      <c r="E31" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="312" t="s">
+      <c r="F31" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="310">
+      <c r="G31" s="211">
         <v>64</v>
       </c>
-      <c r="H31" s="311" t="s">
+      <c r="H31" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="313" t="s">
+      <c r="I31" s="214" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="311" t="s">
+      <c r="J31" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="314" t="s">
+      <c r="K31" s="215" t="s">
         <v>148</v>
       </c>
-      <c r="L31" s="315">
+      <c r="L31" s="216">
         <v>100</v>
       </c>
-      <c r="M31" s="311" t="s">
+      <c r="M31" s="212" t="s">
         <v>234</v>
       </c>
-      <c r="N31" s="313" t="s">
+      <c r="N31" s="214" t="s">
         <v>147</v>
       </c>
-      <c r="O31" s="313" t="s">
+      <c r="O31" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="P31" s="316" t="s">
+      <c r="P31" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q31" s="315">
+      <c r="Q31" s="216">
         <v>136</v>
       </c>
-      <c r="R31" s="311" t="s">
+      <c r="R31" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="S31" s="311" t="s">
+      <c r="S31" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="T31" s="311" t="s">
+      <c r="T31" s="212" t="s">
         <v>236</v>
       </c>
-      <c r="U31" s="314" t="s">
+      <c r="U31" s="215" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="310">
+      <c r="B32" s="211">
         <v>29</v>
       </c>
-      <c r="C32" s="311" t="s">
+      <c r="C32" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="311" t="s">
+      <c r="D32" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="313" t="s">
+      <c r="E32" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="312" t="s">
+      <c r="F32" s="213" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="310">
+      <c r="G32" s="211">
         <v>65</v>
       </c>
-      <c r="H32" s="311" t="s">
+      <c r="H32" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="313" t="s">
+      <c r="I32" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="311" t="s">
+      <c r="J32" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="314" t="s">
+      <c r="K32" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="315">
+      <c r="L32" s="216">
         <v>101</v>
       </c>
-      <c r="M32" s="311" t="s">
+      <c r="M32" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="N32" s="313" t="s">
+      <c r="N32" s="214" t="s">
         <v>415</v>
       </c>
-      <c r="O32" s="313" t="s">
+      <c r="O32" s="214" t="s">
         <v>419</v>
       </c>
-      <c r="P32" s="316" t="s">
+      <c r="P32" s="217" t="s">
         <v>417</v>
       </c>
-      <c r="Q32" s="315">
+      <c r="Q32" s="216">
         <v>137</v>
       </c>
-      <c r="R32" s="311" t="s">
+      <c r="R32" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="S32" s="311" t="s">
+      <c r="S32" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="T32" s="311" t="s">
+      <c r="T32" s="212" t="s">
         <v>239</v>
       </c>
-      <c r="U32" s="314" t="s">
+      <c r="U32" s="215" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="310">
+      <c r="B33" s="211">
         <v>30</v>
       </c>
-      <c r="C33" s="311" t="s">
+      <c r="C33" s="212" t="s">
         <v>240</v>
       </c>
-      <c r="D33" s="311" t="s">
+      <c r="D33" s="212" t="s">
         <v>404</v>
       </c>
-      <c r="E33" s="311" t="s">
+      <c r="E33" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="312" t="s">
+      <c r="F33" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="310">
+      <c r="G33" s="211">
         <v>66</v>
       </c>
-      <c r="H33" s="311" t="s">
+      <c r="H33" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="313" t="s">
+      <c r="I33" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="311" t="s">
+      <c r="J33" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K33" s="314" t="s">
+      <c r="K33" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="L33" s="315">
+      <c r="L33" s="216">
         <v>102</v>
       </c>
-      <c r="M33" s="311" t="s">
+      <c r="M33" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="313" t="s">
+      <c r="N33" s="214" t="s">
         <v>416</v>
       </c>
-      <c r="O33" s="313" t="s">
+      <c r="O33" s="214" t="s">
         <v>420</v>
       </c>
-      <c r="P33" s="316" t="s">
+      <c r="P33" s="217" t="s">
         <v>418</v>
       </c>
-      <c r="Q33" s="315">
+      <c r="Q33" s="216">
         <v>138</v>
       </c>
-      <c r="R33" s="311" t="s">
+      <c r="R33" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="S33" s="311" t="s">
+      <c r="S33" s="212" t="s">
         <v>242</v>
       </c>
-      <c r="T33" s="311" t="s">
+      <c r="T33" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="U33" s="314" t="s">
+      <c r="U33" s="215" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="310">
+      <c r="B34" s="211">
         <v>31</v>
       </c>
-      <c r="C34" s="311" t="s">
+      <c r="C34" s="212" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="212" t="s">
         <v>405</v>
       </c>
-      <c r="E34" s="311" t="s">
+      <c r="E34" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="312" t="s">
+      <c r="F34" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="310">
+      <c r="G34" s="211">
         <v>67</v>
       </c>
-      <c r="H34" s="311" t="s">
+      <c r="H34" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="313" t="s">
+      <c r="I34" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="311" t="s">
+      <c r="J34" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="314" t="s">
+      <c r="K34" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="L34" s="315">
+      <c r="L34" s="216">
         <v>103</v>
       </c>
-      <c r="M34" s="311" t="s">
+      <c r="M34" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="N34" s="313" t="s">
+      <c r="N34" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="O34" s="313" t="s">
+      <c r="O34" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="P34" s="316" t="s">
+      <c r="P34" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q34" s="315">
+      <c r="Q34" s="216">
         <v>139</v>
       </c>
-      <c r="R34" s="311" t="s">
+      <c r="R34" s="212" t="s">
         <v>245</v>
       </c>
-      <c r="S34" s="313" t="s">
+      <c r="S34" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="T34" s="313" t="s">
+      <c r="T34" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="U34" s="316" t="s">
+      <c r="U34" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="310">
+      <c r="B35" s="211">
         <v>32</v>
       </c>
-      <c r="C35" s="311" t="s">
+      <c r="C35" s="212" t="s">
         <v>246</v>
       </c>
-      <c r="D35" s="311" t="s">
+      <c r="D35" s="212" t="s">
         <v>406</v>
       </c>
-      <c r="E35" s="311" t="s">
+      <c r="E35" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="312" t="s">
+      <c r="F35" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="310">
+      <c r="G35" s="211">
         <v>68</v>
       </c>
-      <c r="H35" s="311" t="s">
+      <c r="H35" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="313" t="s">
+      <c r="I35" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="311" t="s">
+      <c r="J35" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K35" s="314" t="s">
+      <c r="K35" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="L35" s="315">
+      <c r="L35" s="216">
         <v>104</v>
       </c>
-      <c r="M35" s="311" t="s">
+      <c r="M35" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="313" t="s">
+      <c r="N35" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="O35" s="313" t="s">
+      <c r="O35" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="P35" s="316" t="s">
+      <c r="P35" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q35" s="315">
+      <c r="Q35" s="216">
         <v>140</v>
       </c>
-      <c r="R35" s="311" t="s">
+      <c r="R35" s="212" t="s">
         <v>247</v>
       </c>
-      <c r="S35" s="313" t="s">
+      <c r="S35" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="T35" s="313" t="s">
+      <c r="T35" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="U35" s="316" t="s">
+      <c r="U35" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="310">
+      <c r="B36" s="211">
         <v>33</v>
       </c>
-      <c r="C36" s="311" t="s">
+      <c r="C36" s="212" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="311" t="s">
+      <c r="D36" s="212" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="311" t="s">
+      <c r="E36" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="312" t="s">
+      <c r="F36" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="310">
+      <c r="G36" s="211">
         <v>69</v>
       </c>
-      <c r="H36" s="311" t="s">
+      <c r="H36" s="212" t="s">
         <v>249</v>
       </c>
-      <c r="I36" s="311" t="s">
+      <c r="I36" s="212" t="s">
         <v>250</v>
       </c>
-      <c r="J36" s="311" t="s">
+      <c r="J36" s="212" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="314" t="s">
+      <c r="K36" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="315">
+      <c r="L36" s="216">
         <v>105</v>
       </c>
-      <c r="M36" s="311" t="s">
+      <c r="M36" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="N36" s="311" t="s">
+      <c r="N36" s="212" t="s">
         <v>252</v>
       </c>
-      <c r="O36" s="311" t="s">
+      <c r="O36" s="212" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="316" t="s">
+      <c r="P36" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="315">
+      <c r="Q36" s="216">
         <v>141</v>
       </c>
-      <c r="R36" s="311" t="s">
+      <c r="R36" s="212" t="s">
         <v>254</v>
       </c>
-      <c r="S36" s="311" t="s">
+      <c r="S36" s="212" t="s">
         <v>273</v>
       </c>
-      <c r="T36" s="311" t="s">
+      <c r="T36" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="U36" s="314" t="s">
+      <c r="U36" s="215" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="310">
+      <c r="B37" s="211">
         <v>34</v>
       </c>
-      <c r="C37" s="311" t="s">
+      <c r="C37" s="212" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="311" t="s">
+      <c r="D37" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="313" t="s">
+      <c r="E37" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="312" t="s">
+      <c r="F37" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="G37" s="310">
+      <c r="G37" s="211">
         <v>70</v>
       </c>
-      <c r="H37" s="311" t="s">
+      <c r="H37" s="212" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="311" t="s">
+      <c r="I37" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="J37" s="311" t="s">
+      <c r="J37" s="212" t="s">
         <v>259</v>
       </c>
-      <c r="K37" s="314" t="s">
+      <c r="K37" s="215" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="315">
+      <c r="L37" s="216">
         <v>106</v>
       </c>
-      <c r="M37" s="311" t="s">
+      <c r="M37" s="212" t="s">
         <v>260</v>
       </c>
-      <c r="N37" s="313" t="s">
+      <c r="N37" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="O37" s="311" t="s">
+      <c r="O37" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="P37" s="316" t="s">
+      <c r="P37" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q37" s="315">
+      <c r="Q37" s="216">
         <v>142</v>
       </c>
-      <c r="R37" s="311" t="s">
+      <c r="R37" s="212" t="s">
         <v>261</v>
       </c>
-      <c r="S37" s="311" t="s">
+      <c r="S37" s="212" t="s">
         <v>274</v>
       </c>
-      <c r="T37" s="311" t="s">
+      <c r="T37" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="U37" s="314" t="s">
+      <c r="U37" s="215" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="310">
+      <c r="B38" s="211">
         <v>35</v>
       </c>
-      <c r="C38" s="311" t="s">
+      <c r="C38" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="311" t="s">
+      <c r="D38" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="313" t="s">
+      <c r="E38" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="312" t="s">
+      <c r="F38" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="310">
+      <c r="G38" s="211">
         <v>71</v>
       </c>
-      <c r="H38" s="311" t="s">
+      <c r="H38" s="212" t="s">
         <v>262</v>
       </c>
-      <c r="I38" s="313" t="s">
+      <c r="I38" s="214" t="s">
         <v>412</v>
       </c>
-      <c r="J38" s="311" t="s">
+      <c r="J38" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="K38" s="317" t="s">
+      <c r="K38" s="218" t="s">
         <v>142</v>
       </c>
-      <c r="L38" s="315">
+      <c r="L38" s="216">
         <v>107</v>
       </c>
-      <c r="M38" s="311" t="s">
+      <c r="M38" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="N38" s="313" t="s">
+      <c r="N38" s="214" t="s">
         <v>412</v>
       </c>
-      <c r="O38" s="311" t="s">
+      <c r="O38" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="316" t="s">
+      <c r="P38" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="Q38" s="315">
+      <c r="Q38" s="216">
         <v>143</v>
       </c>
-      <c r="R38" s="311" t="s">
+      <c r="R38" s="212" t="s">
         <v>264</v>
       </c>
-      <c r="S38" s="313" t="s">
+      <c r="S38" s="214" t="s">
         <v>413</v>
       </c>
-      <c r="T38" s="311" t="s">
+      <c r="T38" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="U38" s="316" t="s">
+      <c r="U38" s="217" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="318">
+      <c r="B39" s="219">
         <v>36</v>
       </c>
-      <c r="C39" s="319" t="s">
+      <c r="C39" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="320" t="s">
+      <c r="D39" s="221" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="320" t="s">
+      <c r="E39" s="221" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="321" t="s">
+      <c r="F39" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="318">
+      <c r="G39" s="219">
         <v>72</v>
       </c>
-      <c r="H39" s="319" t="s">
+      <c r="H39" s="220" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="320" t="s">
+      <c r="I39" s="221" t="s">
         <v>406</v>
       </c>
-      <c r="J39" s="319" t="s">
+      <c r="J39" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="K39" s="322" t="s">
+      <c r="K39" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="L39" s="323">
+      <c r="L39" s="224">
         <v>108</v>
       </c>
-      <c r="M39" s="319" t="s">
+      <c r="M39" s="220" t="s">
         <v>266</v>
       </c>
-      <c r="N39" s="320" t="s">
+      <c r="N39" s="221" t="s">
         <v>409</v>
       </c>
-      <c r="O39" s="319" t="s">
+      <c r="O39" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="P39" s="324" t="s">
+      <c r="P39" s="225" t="s">
         <v>93</v>
       </c>
-      <c r="Q39" s="323">
+      <c r="Q39" s="224">
         <v>144</v>
       </c>
-      <c r="R39" s="319" t="s">
+      <c r="R39" s="220" t="s">
         <v>267</v>
       </c>
-      <c r="S39" s="320" t="s">
+      <c r="S39" s="221" t="s">
         <v>406</v>
       </c>
-      <c r="T39" s="319" t="s">
+      <c r="T39" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="U39" s="324" t="s">
+      <c r="U39" s="225" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7387,13 +7387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U225"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S175" sqref="S175"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="1" max="1" width="1.09765625" customWidth="1"/>
     <col min="2" max="2" width="2.59765625" customWidth="1"/>
     <col min="3" max="3" width="2.69921875" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
@@ -7568,7 +7568,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="33"/>
       <c r="C9" s="38"/>
-      <c r="D9" s="296" t="s">
+      <c r="D9" s="312" t="s">
         <v>284</v>
       </c>
       <c r="E9" s="43" t="s">
@@ -7592,7 +7592,7 @@
     <row r="10" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="33"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="297"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="46"/>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
@@ -7612,7 +7612,7 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="33"/>
       <c r="C11" s="38"/>
-      <c r="D11" s="298" t="s">
+      <c r="D11" s="310" t="s">
         <v>286</v>
       </c>
       <c r="E11" s="49">
@@ -7654,21 +7654,21 @@
     <row r="12" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="33"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="297"/>
-      <c r="E12" s="262" t="s">
+      <c r="D12" s="311"/>
+      <c r="E12" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="264"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="277"/>
       <c r="K12" s="52">
         <v>0</v>
       </c>
-      <c r="L12" s="274"/>
-      <c r="M12" s="275"/>
-      <c r="N12" s="276"/>
+      <c r="L12" s="295"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="297"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="193"/>
@@ -7690,20 +7690,20 @@
       <c r="G13" s="50">
         <v>1</v>
       </c>
-      <c r="H13" s="277">
+      <c r="H13" s="298">
         <v>2</v>
       </c>
-      <c r="I13" s="278"/>
+      <c r="I13" s="299"/>
       <c r="J13" s="53">
         <v>1</v>
       </c>
       <c r="K13" s="54">
         <v>1</v>
       </c>
-      <c r="L13" s="277">
+      <c r="L13" s="298">
         <v>2</v>
       </c>
-      <c r="M13" s="278"/>
+      <c r="M13" s="299"/>
       <c r="N13" s="51">
         <v>1</v>
       </c>
@@ -7728,20 +7728,20 @@
       <c r="G14" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H14" s="254" t="s">
+      <c r="H14" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I14" s="255"/>
+      <c r="I14" s="265"/>
       <c r="J14" s="95" t="s">
         <v>294</v>
       </c>
       <c r="K14" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="L14" s="279" t="s">
+      <c r="L14" s="306" t="s">
         <v>296</v>
       </c>
-      <c r="M14" s="280"/>
+      <c r="M14" s="307"/>
       <c r="N14" s="59" t="s">
         <v>297</v>
       </c>
@@ -7766,20 +7766,20 @@
       <c r="G15" s="62">
         <v>0</v>
       </c>
-      <c r="H15" s="258">
-        <v>1</v>
-      </c>
-      <c r="I15" s="259"/>
+      <c r="H15" s="268">
+        <v>1</v>
+      </c>
+      <c r="I15" s="269"/>
       <c r="J15" s="63" t="s">
         <v>300</v>
       </c>
       <c r="K15" s="64">
         <v>0</v>
       </c>
-      <c r="L15" s="281" t="s">
+      <c r="L15" s="308" t="s">
         <v>301</v>
       </c>
-      <c r="M15" s="282"/>
+      <c r="M15" s="309"/>
       <c r="N15" s="65" t="s">
         <v>302</v>
       </c>
@@ -7860,7 +7860,7 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="33"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="296" t="s">
+      <c r="D19" s="312" t="s">
         <v>284</v>
       </c>
       <c r="E19" s="43" t="s">
@@ -7884,7 +7884,7 @@
     <row r="20" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="33"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="297"/>
+      <c r="D20" s="311"/>
       <c r="E20" s="46" t="s">
         <v>373</v>
       </c>
@@ -7906,7 +7906,7 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="33"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="298" t="s">
+      <c r="D21" s="310" t="s">
         <v>286</v>
       </c>
       <c r="E21" s="69">
@@ -7952,15 +7952,15 @@
     <row r="22" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="33"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="244" t="s">
+      <c r="D22" s="311"/>
+      <c r="E22" s="287" t="s">
         <v>287</v>
       </c>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="246"/>
+      <c r="F22" s="288"/>
+      <c r="G22" s="288"/>
+      <c r="H22" s="288"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="289"/>
       <c r="K22" s="71">
         <v>0</v>
       </c>
@@ -7970,9 +7970,9 @@
       <c r="M22" s="88">
         <v>1</v>
       </c>
-      <c r="N22" s="274"/>
-      <c r="O22" s="275"/>
-      <c r="P22" s="276"/>
+      <c r="N22" s="295"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="297"/>
       <c r="Q22" s="194"/>
       <c r="R22" s="34"/>
       <c r="S22" s="33"/>
@@ -7992,10 +7992,10 @@
       <c r="G23" s="74">
         <v>1</v>
       </c>
-      <c r="H23" s="277">
+      <c r="H23" s="298">
         <v>2</v>
       </c>
-      <c r="I23" s="278"/>
+      <c r="I23" s="299"/>
       <c r="J23" s="97">
         <v>1</v>
       </c>
@@ -8008,10 +8008,10 @@
       <c r="M23" s="174">
         <v>1</v>
       </c>
-      <c r="N23" s="277">
+      <c r="N23" s="298">
         <v>2</v>
       </c>
-      <c r="O23" s="278"/>
+      <c r="O23" s="299"/>
       <c r="P23" s="76">
         <v>1</v>
       </c>
@@ -8034,10 +8034,10 @@
       <c r="G24" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="H24" s="254" t="s">
+      <c r="H24" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I24" s="255"/>
+      <c r="I24" s="265"/>
       <c r="J24" s="86" t="s">
         <v>294</v>
       </c>
@@ -8050,10 +8050,10 @@
       <c r="M24" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="N24" s="254" t="s">
+      <c r="N24" s="264" t="s">
         <v>296</v>
       </c>
-      <c r="O24" s="255"/>
+      <c r="O24" s="265"/>
       <c r="P24" s="84" t="s">
         <v>297</v>
       </c>
@@ -8076,10 +8076,10 @@
       <c r="G25" s="62">
         <v>1</v>
       </c>
-      <c r="H25" s="258">
-        <v>4</v>
-      </c>
-      <c r="I25" s="259"/>
+      <c r="H25" s="268">
+        <v>3</v>
+      </c>
+      <c r="I25" s="269"/>
       <c r="J25" s="78" t="s">
         <v>308</v>
       </c>
@@ -8092,10 +8092,10 @@
       <c r="M25" s="177" t="s">
         <v>374</v>
       </c>
-      <c r="N25" s="258" t="s">
+      <c r="N25" s="268" t="s">
         <v>309</v>
       </c>
-      <c r="O25" s="259"/>
+      <c r="O25" s="269"/>
       <c r="P25" s="80" t="s">
         <v>310</v>
       </c>
@@ -8212,7 +8212,7 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="33"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="296" t="s">
+      <c r="D31" s="312" t="s">
         <v>284</v>
       </c>
       <c r="E31" s="43" t="s">
@@ -8235,7 +8235,7 @@
     <row r="32" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="33"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="297"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="46" t="s">
         <v>313</v>
       </c>
@@ -8256,7 +8256,7 @@
     <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="33"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="298" t="s">
+      <c r="D33" s="310" t="s">
         <v>286</v>
       </c>
       <c r="E33" s="49">
@@ -8299,24 +8299,24 @@
     <row r="34" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="33"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="297"/>
-      <c r="E34" s="262" t="s">
+      <c r="D34" s="311"/>
+      <c r="E34" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="263"/>
-      <c r="G34" s="263"/>
-      <c r="H34" s="263"/>
-      <c r="I34" s="263"/>
-      <c r="J34" s="264"/>
+      <c r="F34" s="276"/>
+      <c r="G34" s="276"/>
+      <c r="H34" s="276"/>
+      <c r="I34" s="276"/>
+      <c r="J34" s="277"/>
       <c r="K34" s="52">
         <v>0</v>
       </c>
       <c r="L34" s="52">
         <v>1</v>
       </c>
-      <c r="M34" s="274"/>
-      <c r="N34" s="275"/>
-      <c r="O34" s="276"/>
+      <c r="M34" s="295"/>
+      <c r="N34" s="296"/>
+      <c r="O34" s="297"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
@@ -8336,21 +8336,21 @@
       <c r="G35" s="50">
         <v>1</v>
       </c>
-      <c r="H35" s="277">
+      <c r="H35" s="298">
         <v>2</v>
       </c>
-      <c r="I35" s="278"/>
+      <c r="I35" s="299"/>
       <c r="J35" s="53">
         <v>1</v>
       </c>
-      <c r="K35" s="283">
+      <c r="K35" s="302">
         <v>2</v>
       </c>
-      <c r="L35" s="284"/>
-      <c r="M35" s="277">
+      <c r="L35" s="303"/>
+      <c r="M35" s="298">
         <v>2</v>
       </c>
-      <c r="N35" s="278"/>
+      <c r="N35" s="299"/>
       <c r="O35" s="51">
         <v>1</v>
       </c>
@@ -8373,21 +8373,21 @@
       <c r="G36" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H36" s="254" t="s">
+      <c r="H36" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I36" s="255"/>
+      <c r="I36" s="265"/>
       <c r="J36" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="K36" s="285" t="s">
+      <c r="K36" s="323" t="s">
         <v>314</v>
       </c>
-      <c r="L36" s="286"/>
-      <c r="M36" s="279" t="s">
+      <c r="L36" s="324"/>
+      <c r="M36" s="306" t="s">
         <v>296</v>
       </c>
-      <c r="N36" s="280"/>
+      <c r="N36" s="307"/>
       <c r="O36" s="59" t="s">
         <v>297</v>
       </c>
@@ -8410,21 +8410,21 @@
       <c r="G37" s="62">
         <v>0</v>
       </c>
-      <c r="H37" s="258">
-        <v>3</v>
-      </c>
-      <c r="I37" s="259"/>
+      <c r="H37" s="268">
+        <v>2</v>
+      </c>
+      <c r="I37" s="269"/>
       <c r="J37" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="K37" s="287" t="s">
+      <c r="K37" s="316" t="s">
         <v>316</v>
       </c>
-      <c r="L37" s="288"/>
-      <c r="M37" s="281" t="s">
+      <c r="L37" s="317"/>
+      <c r="M37" s="308" t="s">
         <v>316</v>
       </c>
-      <c r="N37" s="282"/>
+      <c r="N37" s="309"/>
       <c r="O37" s="65" t="s">
         <v>302</v>
       </c>
@@ -8501,7 +8501,7 @@
     <row r="41" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B41" s="33"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="312" t="s">
         <v>284</v>
       </c>
       <c r="E41" s="43" t="s">
@@ -8524,7 +8524,7 @@
     <row r="42" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="33"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="297"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="46" t="s">
         <v>370</v>
       </c>
@@ -8545,7 +8545,7 @@
     <row r="43" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B43" s="33"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="298" t="s">
+      <c r="D43" s="310" t="s">
         <v>286</v>
       </c>
       <c r="E43" s="69">
@@ -8586,21 +8586,21 @@
     <row r="44" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="33"/>
       <c r="C44" s="38"/>
-      <c r="D44" s="297"/>
-      <c r="E44" s="244" t="s">
+      <c r="D44" s="311"/>
+      <c r="E44" s="287" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="245"/>
-      <c r="G44" s="245"/>
-      <c r="H44" s="245"/>
-      <c r="I44" s="245"/>
-      <c r="J44" s="246"/>
+      <c r="F44" s="288"/>
+      <c r="G44" s="288"/>
+      <c r="H44" s="288"/>
+      <c r="I44" s="288"/>
+      <c r="J44" s="289"/>
       <c r="K44" s="88">
         <v>1</v>
       </c>
-      <c r="L44" s="274"/>
-      <c r="M44" s="275"/>
-      <c r="N44" s="276"/>
+      <c r="L44" s="295"/>
+      <c r="M44" s="296"/>
+      <c r="N44" s="297"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="104"/>
       <c r="R44" s="34"/>
@@ -8621,20 +8621,20 @@
       <c r="G45" s="74">
         <v>1</v>
       </c>
-      <c r="H45" s="277">
+      <c r="H45" s="298">
         <v>2</v>
       </c>
-      <c r="I45" s="278"/>
+      <c r="I45" s="299"/>
       <c r="J45" s="97">
         <v>1</v>
       </c>
       <c r="K45" s="149">
         <v>1</v>
       </c>
-      <c r="L45" s="277">
+      <c r="L45" s="298">
         <v>2</v>
       </c>
-      <c r="M45" s="278"/>
+      <c r="M45" s="299"/>
       <c r="N45" s="76">
         <v>1</v>
       </c>
@@ -8658,20 +8658,20 @@
       <c r="G46" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="H46" s="254" t="s">
+      <c r="H46" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I46" s="255"/>
+      <c r="I46" s="265"/>
       <c r="J46" s="86" t="s">
         <v>294</v>
       </c>
       <c r="K46" s="89" t="s">
         <v>367</v>
       </c>
-      <c r="L46" s="254" t="s">
+      <c r="L46" s="264" t="s">
         <v>296</v>
       </c>
-      <c r="M46" s="255"/>
+      <c r="M46" s="265"/>
       <c r="N46" s="84" t="s">
         <v>297</v>
       </c>
@@ -8695,20 +8695,20 @@
       <c r="G47" s="62">
         <v>1</v>
       </c>
-      <c r="H47" s="258">
-        <v>1</v>
-      </c>
-      <c r="I47" s="259"/>
+      <c r="H47" s="268">
+        <v>1</v>
+      </c>
+      <c r="I47" s="269"/>
       <c r="J47" s="78" t="s">
         <v>318</v>
       </c>
       <c r="K47" s="151">
         <v>0</v>
       </c>
-      <c r="L47" s="258" t="s">
+      <c r="L47" s="268" t="s">
         <v>316</v>
       </c>
-      <c r="M47" s="259"/>
+      <c r="M47" s="269"/>
       <c r="N47" s="80" t="s">
         <v>310</v>
       </c>
@@ -8828,7 +8828,7 @@
     <row r="53" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B53" s="33"/>
       <c r="C53" s="38"/>
-      <c r="D53" s="296" t="s">
+      <c r="D53" s="312" t="s">
         <v>284</v>
       </c>
       <c r="E53" s="43" t="s">
@@ -8852,7 +8852,7 @@
     <row r="54" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B54" s="33"/>
       <c r="C54" s="38"/>
-      <c r="D54" s="299"/>
+      <c r="D54" s="313"/>
       <c r="E54" s="91" t="s">
         <v>321</v>
       </c>
@@ -8874,7 +8874,7 @@
     <row r="55" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="33"/>
       <c r="C55" s="38"/>
-      <c r="D55" s="297"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="46" t="s">
         <v>322</v>
       </c>
@@ -8896,7 +8896,7 @@
     <row r="56" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B56" s="33"/>
       <c r="C56" s="38"/>
-      <c r="D56" s="298" t="s">
+      <c r="D56" s="310" t="s">
         <v>286</v>
       </c>
       <c r="E56" s="49">
@@ -8940,24 +8940,24 @@
     <row r="57" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="33"/>
       <c r="C57" s="38"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="262" t="s">
+      <c r="D57" s="311"/>
+      <c r="E57" s="275" t="s">
         <v>287</v>
       </c>
-      <c r="F57" s="263"/>
-      <c r="G57" s="263"/>
-      <c r="H57" s="263"/>
-      <c r="I57" s="263"/>
-      <c r="J57" s="264"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="276"/>
+      <c r="I57" s="276"/>
+      <c r="J57" s="277"/>
       <c r="K57" s="52">
         <v>0</v>
       </c>
       <c r="L57" s="52">
         <v>1</v>
       </c>
-      <c r="M57" s="274"/>
-      <c r="N57" s="275"/>
-      <c r="O57" s="276"/>
+      <c r="M57" s="295"/>
+      <c r="N57" s="296"/>
+      <c r="O57" s="297"/>
       <c r="P57" s="33"/>
       <c r="Q57" s="38"/>
       <c r="R57" s="34"/>
@@ -8978,10 +8978,10 @@
       <c r="G58" s="50">
         <v>1</v>
       </c>
-      <c r="H58" s="277">
+      <c r="H58" s="298">
         <v>2</v>
       </c>
-      <c r="I58" s="278"/>
+      <c r="I58" s="299"/>
       <c r="J58" s="53">
         <v>1</v>
       </c>
@@ -8991,10 +8991,10 @@
       <c r="L58" s="103">
         <v>1</v>
       </c>
-      <c r="M58" s="277">
+      <c r="M58" s="298">
         <v>2</v>
       </c>
-      <c r="N58" s="278"/>
+      <c r="N58" s="299"/>
       <c r="O58" s="51">
         <v>1</v>
       </c>
@@ -9018,10 +9018,10 @@
       <c r="G59" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H59" s="254" t="s">
+      <c r="H59" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I59" s="255"/>
+      <c r="I59" s="265"/>
       <c r="J59" s="95" t="s">
         <v>294</v>
       </c>
@@ -9031,10 +9031,10 @@
       <c r="L59" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="M59" s="279" t="s">
+      <c r="M59" s="306" t="s">
         <v>296</v>
       </c>
-      <c r="N59" s="280"/>
+      <c r="N59" s="307"/>
       <c r="O59" s="59" t="s">
         <v>297</v>
       </c>
@@ -9058,10 +9058,10 @@
       <c r="G60" s="62">
         <v>0</v>
       </c>
-      <c r="H60" s="258">
+      <c r="H60" s="268">
         <v>2</v>
       </c>
-      <c r="I60" s="259"/>
+      <c r="I60" s="269"/>
       <c r="J60" s="63" t="s">
         <v>324</v>
       </c>
@@ -9071,10 +9071,10 @@
       <c r="L60" s="100" t="s">
         <v>309</v>
       </c>
-      <c r="M60" s="281" t="s">
+      <c r="M60" s="308" t="s">
         <v>316</v>
       </c>
-      <c r="N60" s="282"/>
+      <c r="N60" s="309"/>
       <c r="O60" s="65" t="s">
         <v>302</v>
       </c>
@@ -9154,7 +9154,7 @@
     <row r="64" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B64" s="33"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="296" t="s">
+      <c r="D64" s="312" t="s">
         <v>284</v>
       </c>
       <c r="E64" s="43" t="s">
@@ -9180,7 +9180,7 @@
     <row r="65" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="33"/>
       <c r="C65" s="38"/>
-      <c r="D65" s="297"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="46" t="s">
         <v>327</v>
       </c>
@@ -9204,7 +9204,7 @@
     <row r="66" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B66" s="33"/>
       <c r="C66" s="38"/>
-      <c r="D66" s="298" t="s">
+      <c r="D66" s="310" t="s">
         <v>286</v>
       </c>
       <c r="E66" s="69">
@@ -9248,21 +9248,21 @@
     <row r="67" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B67" s="33"/>
       <c r="C67" s="38"/>
-      <c r="D67" s="297"/>
-      <c r="E67" s="244" t="s">
+      <c r="D67" s="311"/>
+      <c r="E67" s="287" t="s">
         <v>287</v>
       </c>
-      <c r="F67" s="245"/>
-      <c r="G67" s="245"/>
-      <c r="H67" s="245"/>
-      <c r="I67" s="245"/>
-      <c r="J67" s="246"/>
+      <c r="F67" s="288"/>
+      <c r="G67" s="288"/>
+      <c r="H67" s="288"/>
+      <c r="I67" s="288"/>
+      <c r="J67" s="289"/>
       <c r="K67" s="71">
         <v>0</v>
       </c>
-      <c r="L67" s="274"/>
-      <c r="M67" s="275"/>
-      <c r="N67" s="276"/>
+      <c r="L67" s="295"/>
+      <c r="M67" s="296"/>
+      <c r="N67" s="297"/>
       <c r="O67" s="34"/>
       <c r="P67" s="34"/>
       <c r="Q67" s="104"/>
@@ -9286,20 +9286,20 @@
       <c r="G68" s="74">
         <v>1</v>
       </c>
-      <c r="H68" s="277">
+      <c r="H68" s="298">
         <v>2</v>
       </c>
-      <c r="I68" s="278"/>
+      <c r="I68" s="299"/>
       <c r="J68" s="97">
         <v>1</v>
       </c>
       <c r="K68" s="75">
         <v>1</v>
       </c>
-      <c r="L68" s="277">
+      <c r="L68" s="298">
         <v>2</v>
       </c>
-      <c r="M68" s="278"/>
+      <c r="M68" s="299"/>
       <c r="N68" s="76">
         <v>1</v>
       </c>
@@ -9326,20 +9326,20 @@
       <c r="G69" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="H69" s="254" t="s">
+      <c r="H69" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I69" s="255"/>
+      <c r="I69" s="265"/>
       <c r="J69" s="86" t="s">
         <v>294</v>
       </c>
       <c r="K69" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="L69" s="254" t="s">
+      <c r="L69" s="264" t="s">
         <v>296</v>
       </c>
-      <c r="M69" s="255"/>
+      <c r="M69" s="265"/>
       <c r="N69" s="84" t="s">
         <v>297</v>
       </c>
@@ -9366,20 +9366,20 @@
       <c r="G70" s="62">
         <v>1</v>
       </c>
-      <c r="H70" s="258">
-        <v>1</v>
-      </c>
-      <c r="I70" s="259"/>
+      <c r="H70" s="268">
+        <v>1</v>
+      </c>
+      <c r="I70" s="269"/>
       <c r="J70" s="78" t="s">
         <v>329</v>
       </c>
       <c r="K70" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="L70" s="258" t="s">
+      <c r="L70" s="268" t="s">
         <v>316</v>
       </c>
-      <c r="M70" s="259"/>
+      <c r="M70" s="269"/>
       <c r="N70" s="80" t="s">
         <v>310</v>
       </c>
@@ -9512,7 +9512,7 @@
     <row r="76" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B76" s="34"/>
       <c r="C76" s="108"/>
-      <c r="D76" s="242" t="s">
+      <c r="D76" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E76" s="118" t="s">
@@ -9538,7 +9538,7 @@
     <row r="77" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="34"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="243"/>
+      <c r="D77" s="274"/>
       <c r="E77" s="115" t="s">
         <v>375</v>
       </c>
@@ -9562,7 +9562,7 @@
     <row r="78" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B78" s="34"/>
       <c r="C78" s="108"/>
-      <c r="D78" s="242" t="s">
+      <c r="D78" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E78" s="121">
@@ -9616,15 +9616,15 @@
     <row r="79" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B79" s="34"/>
       <c r="C79" s="108"/>
-      <c r="D79" s="243"/>
-      <c r="E79" s="262" t="s">
+      <c r="D79" s="274"/>
+      <c r="E79" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F79" s="263"/>
-      <c r="G79" s="263"/>
-      <c r="H79" s="263"/>
-      <c r="I79" s="263"/>
-      <c r="J79" s="264"/>
+      <c r="F79" s="276"/>
+      <c r="G79" s="276"/>
+      <c r="H79" s="276"/>
+      <c r="I79" s="276"/>
+      <c r="J79" s="277"/>
       <c r="K79" s="52">
         <v>0</v>
       </c>
@@ -9643,9 +9643,9 @@
       <c r="P79" s="52">
         <v>2050</v>
       </c>
-      <c r="Q79" s="265"/>
-      <c r="R79" s="289"/>
-      <c r="S79" s="290"/>
+      <c r="Q79" s="282"/>
+      <c r="R79" s="283"/>
+      <c r="S79" s="284"/>
       <c r="T79" s="113"/>
       <c r="U79" s="34"/>
     </row>
@@ -9664,29 +9664,29 @@
       <c r="G80" s="122">
         <v>1</v>
       </c>
-      <c r="H80" s="250">
+      <c r="H80" s="278">
         <v>2</v>
       </c>
-      <c r="I80" s="251"/>
+      <c r="I80" s="279"/>
       <c r="J80" s="122">
         <v>1</v>
       </c>
       <c r="K80" s="54">
         <v>1</v>
       </c>
-      <c r="L80" s="283">
+      <c r="L80" s="302">
         <v>2048</v>
       </c>
-      <c r="M80" s="291"/>
-      <c r="N80" s="284"/>
-      <c r="O80" s="283">
+      <c r="M80" s="314"/>
+      <c r="N80" s="303"/>
+      <c r="O80" s="302">
         <v>2</v>
       </c>
-      <c r="P80" s="284"/>
-      <c r="Q80" s="250">
+      <c r="P80" s="303"/>
+      <c r="Q80" s="278">
         <v>2</v>
       </c>
-      <c r="R80" s="251"/>
+      <c r="R80" s="279"/>
       <c r="S80" s="123">
         <v>1</v>
       </c>
@@ -9708,29 +9708,29 @@
       <c r="G81" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H81" s="269" t="s">
+      <c r="H81" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I81" s="270"/>
+      <c r="I81" s="281"/>
       <c r="J81" s="94" t="s">
         <v>294</v>
       </c>
       <c r="K81" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="L81" s="292" t="s">
+      <c r="L81" s="304" t="s">
         <v>376</v>
       </c>
-      <c r="M81" s="293"/>
-      <c r="N81" s="294"/>
-      <c r="O81" s="292" t="s">
+      <c r="M81" s="315"/>
+      <c r="N81" s="305"/>
+      <c r="O81" s="304" t="s">
         <v>334</v>
       </c>
-      <c r="P81" s="294"/>
-      <c r="Q81" s="269" t="s">
+      <c r="P81" s="305"/>
+      <c r="Q81" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="R81" s="270"/>
+      <c r="R81" s="281"/>
       <c r="S81" s="129" t="s">
         <v>297</v>
       </c>
@@ -9752,10 +9752,10 @@
       <c r="G82" s="62">
         <v>0</v>
       </c>
-      <c r="H82" s="258">
+      <c r="H82" s="268">
         <v>1027</v>
       </c>
-      <c r="I82" s="259"/>
+      <c r="I82" s="269"/>
       <c r="J82" s="132" t="s">
         <v>335</v>
       </c>
@@ -9771,14 +9771,14 @@
       <c r="N82" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="O82" s="287" t="s">
+      <c r="O82" s="316" t="s">
         <v>316</v>
       </c>
-      <c r="P82" s="288"/>
-      <c r="Q82" s="272" t="s">
+      <c r="P82" s="317"/>
+      <c r="Q82" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="R82" s="295"/>
+      <c r="R82" s="286"/>
       <c r="S82" s="162" t="s">
         <v>302</v>
       </c>
@@ -9856,7 +9856,7 @@
     <row r="86" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B86" s="34"/>
       <c r="C86" s="108"/>
-      <c r="D86" s="242" t="s">
+      <c r="D86" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E86" s="118" t="s">
@@ -9879,7 +9879,7 @@
     <row r="87" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B87" s="34"/>
       <c r="C87" s="108"/>
-      <c r="D87" s="243"/>
+      <c r="D87" s="274"/>
       <c r="E87" s="115" t="s">
         <v>379</v>
       </c>
@@ -9900,7 +9900,7 @@
     <row r="88" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B88" s="34"/>
       <c r="C88" s="108"/>
-      <c r="D88" s="242" t="s">
+      <c r="D88" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E88" s="125">
@@ -9941,21 +9941,21 @@
     <row r="89" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B89" s="34"/>
       <c r="C89" s="108"/>
-      <c r="D89" s="243"/>
-      <c r="E89" s="244" t="s">
+      <c r="D89" s="274"/>
+      <c r="E89" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F89" s="245"/>
-      <c r="G89" s="245"/>
-      <c r="H89" s="245"/>
-      <c r="I89" s="245"/>
-      <c r="J89" s="246"/>
+      <c r="F89" s="288"/>
+      <c r="G89" s="288"/>
+      <c r="H89" s="288"/>
+      <c r="I89" s="288"/>
+      <c r="J89" s="289"/>
       <c r="K89" s="71">
         <v>0</v>
       </c>
-      <c r="L89" s="247"/>
-      <c r="M89" s="248"/>
-      <c r="N89" s="249"/>
+      <c r="L89" s="290"/>
+      <c r="M89" s="291"/>
+      <c r="N89" s="292"/>
       <c r="R89" s="136"/>
       <c r="S89" s="136"/>
       <c r="T89" s="137"/>
@@ -9976,20 +9976,20 @@
       <c r="G90" s="122">
         <v>1</v>
       </c>
-      <c r="H90" s="250">
+      <c r="H90" s="278">
         <v>2</v>
       </c>
-      <c r="I90" s="251"/>
+      <c r="I90" s="279"/>
       <c r="J90" s="122">
         <v>1</v>
       </c>
       <c r="K90" s="173">
         <v>1</v>
       </c>
-      <c r="L90" s="252">
+      <c r="L90" s="293">
         <v>2</v>
       </c>
-      <c r="M90" s="253"/>
+      <c r="M90" s="294"/>
       <c r="N90" s="123">
         <v>1</v>
       </c>
@@ -10013,20 +10013,20 @@
       <c r="G91" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H91" s="254" t="s">
+      <c r="H91" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I91" s="255"/>
+      <c r="I91" s="265"/>
       <c r="J91" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K91" s="175" t="s">
         <v>380</v>
       </c>
-      <c r="L91" s="256" t="s">
+      <c r="L91" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M91" s="257"/>
+      <c r="M91" s="267"/>
       <c r="N91" s="139" t="s">
         <v>297</v>
       </c>
@@ -10050,10 +10050,10 @@
       <c r="G92" s="62">
         <v>1</v>
       </c>
-      <c r="H92" s="258">
+      <c r="H92" s="268">
         <v>4</v>
       </c>
-      <c r="I92" s="259"/>
+      <c r="I92" s="269"/>
       <c r="J92" s="141" t="s">
         <v>339</v>
       </c>
@@ -10193,7 +10193,7 @@
     <row r="98" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B98" s="34"/>
       <c r="C98" s="108"/>
-      <c r="D98" s="242" t="s">
+      <c r="D98" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E98" s="118" t="s">
@@ -10219,7 +10219,7 @@
     <row r="99" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B99" s="34"/>
       <c r="C99" s="108"/>
-      <c r="D99" s="300"/>
+      <c r="D99" s="273"/>
       <c r="E99" s="156" t="s">
         <v>378</v>
       </c>
@@ -10243,7 +10243,7 @@
     <row r="100" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B100" s="34"/>
       <c r="C100" s="108"/>
-      <c r="D100" s="243"/>
+      <c r="D100" s="274"/>
       <c r="E100" s="115" t="s">
         <v>342</v>
       </c>
@@ -10267,7 +10267,7 @@
     <row r="101" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B101" s="34"/>
       <c r="C101" s="108"/>
-      <c r="D101" s="242" t="s">
+      <c r="D101" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E101" s="121">
@@ -10319,15 +10319,15 @@
     <row r="102" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B102" s="34"/>
       <c r="C102" s="108"/>
-      <c r="D102" s="243"/>
-      <c r="E102" s="262" t="s">
+      <c r="D102" s="274"/>
+      <c r="E102" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F102" s="263"/>
-      <c r="G102" s="263"/>
-      <c r="H102" s="263"/>
-      <c r="I102" s="263"/>
-      <c r="J102" s="264"/>
+      <c r="F102" s="276"/>
+      <c r="G102" s="276"/>
+      <c r="H102" s="276"/>
+      <c r="I102" s="276"/>
+      <c r="J102" s="277"/>
       <c r="K102" s="52">
         <v>0</v>
       </c>
@@ -10343,9 +10343,9 @@
       <c r="O102" s="152">
         <v>4</v>
       </c>
-      <c r="P102" s="265"/>
-      <c r="Q102" s="289"/>
-      <c r="R102" s="290"/>
+      <c r="P102" s="282"/>
+      <c r="Q102" s="283"/>
+      <c r="R102" s="284"/>
       <c r="S102" s="134"/>
       <c r="T102" s="155"/>
       <c r="U102" s="34"/>
@@ -10365,10 +10365,10 @@
       <c r="G103" s="122">
         <v>1</v>
       </c>
-      <c r="H103" s="250">
+      <c r="H103" s="278">
         <v>2</v>
       </c>
-      <c r="I103" s="251"/>
+      <c r="I103" s="279"/>
       <c r="J103" s="122">
         <v>1</v>
       </c>
@@ -10381,14 +10381,14 @@
       <c r="M103" s="102">
         <v>1</v>
       </c>
-      <c r="N103" s="283">
+      <c r="N103" s="302">
         <v>2</v>
       </c>
-      <c r="O103" s="284"/>
-      <c r="P103" s="250">
+      <c r="O103" s="303"/>
+      <c r="P103" s="278">
         <v>2</v>
       </c>
-      <c r="Q103" s="251"/>
+      <c r="Q103" s="279"/>
       <c r="R103" s="123">
         <v>1</v>
       </c>
@@ -10411,10 +10411,10 @@
       <c r="G104" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H104" s="269" t="s">
+      <c r="H104" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I104" s="270"/>
+      <c r="I104" s="281"/>
       <c r="J104" s="94" t="s">
         <v>294</v>
       </c>
@@ -10427,14 +10427,14 @@
       <c r="M104" s="153" t="s">
         <v>323</v>
       </c>
-      <c r="N104" s="292" t="s">
+      <c r="N104" s="304" t="s">
         <v>345</v>
       </c>
-      <c r="O104" s="294"/>
-      <c r="P104" s="269" t="s">
+      <c r="O104" s="305"/>
+      <c r="P104" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="Q104" s="270"/>
+      <c r="Q104" s="281"/>
       <c r="R104" s="129" t="s">
         <v>297</v>
       </c>
@@ -10457,10 +10457,10 @@
       <c r="G105" s="62">
         <v>0</v>
       </c>
-      <c r="H105" s="258">
+      <c r="H105" s="268">
         <v>5</v>
       </c>
-      <c r="I105" s="259"/>
+      <c r="I105" s="269"/>
       <c r="J105" s="132" t="s">
         <v>346</v>
       </c>
@@ -10473,14 +10473,14 @@
       <c r="M105" s="154" t="s">
         <v>309</v>
       </c>
-      <c r="N105" s="301" t="s">
+      <c r="N105" s="300" t="s">
         <v>316</v>
       </c>
-      <c r="O105" s="302"/>
-      <c r="P105" s="272" t="s">
+      <c r="O105" s="301"/>
+      <c r="P105" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="Q105" s="295"/>
+      <c r="Q105" s="286"/>
       <c r="R105" s="162" t="s">
         <v>302</v>
       </c>
@@ -10565,7 +10565,7 @@
     <row r="109" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B109" s="34"/>
       <c r="C109" s="108"/>
-      <c r="D109" s="242" t="s">
+      <c r="D109" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E109" s="118" t="s">
@@ -10591,7 +10591,7 @@
     <row r="110" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B110" s="34"/>
       <c r="C110" s="108"/>
-      <c r="D110" s="243"/>
+      <c r="D110" s="274"/>
       <c r="E110" s="115" t="s">
         <v>349</v>
       </c>
@@ -10615,7 +10615,7 @@
     <row r="111" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B111" s="34"/>
       <c r="C111" s="108"/>
-      <c r="D111" s="242" t="s">
+      <c r="D111" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E111" s="125">
@@ -10659,21 +10659,21 @@
     <row r="112" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B112" s="34"/>
       <c r="C112" s="108"/>
-      <c r="D112" s="243"/>
-      <c r="E112" s="244" t="s">
+      <c r="D112" s="274"/>
+      <c r="E112" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F112" s="245"/>
-      <c r="G112" s="245"/>
-      <c r="H112" s="245"/>
-      <c r="I112" s="245"/>
-      <c r="J112" s="246"/>
+      <c r="F112" s="288"/>
+      <c r="G112" s="288"/>
+      <c r="H112" s="288"/>
+      <c r="I112" s="288"/>
+      <c r="J112" s="289"/>
       <c r="K112" s="147">
         <v>0</v>
       </c>
-      <c r="L112" s="247"/>
-      <c r="M112" s="248"/>
-      <c r="N112" s="249"/>
+      <c r="L112" s="290"/>
+      <c r="M112" s="291"/>
+      <c r="N112" s="292"/>
       <c r="O112" s="136"/>
       <c r="P112" s="136"/>
       <c r="Q112" s="136"/>
@@ -10697,20 +10697,20 @@
       <c r="G113" s="122">
         <v>1</v>
       </c>
-      <c r="H113" s="250">
+      <c r="H113" s="278">
         <v>2</v>
       </c>
-      <c r="I113" s="251"/>
+      <c r="I113" s="279"/>
       <c r="J113" s="122">
         <v>1</v>
       </c>
       <c r="K113" s="148">
         <v>1</v>
       </c>
-      <c r="L113" s="252">
+      <c r="L113" s="293">
         <v>2</v>
       </c>
-      <c r="M113" s="253"/>
+      <c r="M113" s="294"/>
       <c r="N113" s="123">
         <v>1</v>
       </c>
@@ -10737,20 +10737,20 @@
       <c r="G114" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H114" s="254" t="s">
+      <c r="H114" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I114" s="255"/>
+      <c r="I114" s="265"/>
       <c r="J114" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K114" s="150" t="s">
         <v>295</v>
       </c>
-      <c r="L114" s="256" t="s">
+      <c r="L114" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M114" s="257"/>
+      <c r="M114" s="267"/>
       <c r="N114" s="139" t="s">
         <v>297</v>
       </c>
@@ -10777,20 +10777,20 @@
       <c r="G115" s="62">
         <v>1</v>
       </c>
-      <c r="H115" s="258">
-        <v>1</v>
-      </c>
-      <c r="I115" s="259"/>
+      <c r="H115" s="268">
+        <v>1</v>
+      </c>
+      <c r="I115" s="269"/>
       <c r="J115" s="141" t="s">
         <v>350</v>
       </c>
       <c r="K115" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="L115" s="260" t="s">
+      <c r="L115" s="270" t="s">
         <v>316</v>
       </c>
-      <c r="M115" s="261"/>
+      <c r="M115" s="271"/>
       <c r="N115" s="80" t="s">
         <v>310</v>
       </c>
@@ -10901,7 +10901,7 @@
     <row r="121" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B121" s="32"/>
       <c r="C121" s="108"/>
-      <c r="D121" s="242" t="s">
+      <c r="D121" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E121" s="163" t="s">
@@ -10927,7 +10927,7 @@
     <row r="122" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B122" s="32"/>
       <c r="C122" s="108"/>
-      <c r="D122" s="243"/>
+      <c r="D122" s="274"/>
       <c r="E122" s="166" t="s">
         <v>353</v>
       </c>
@@ -10951,7 +10951,7 @@
     <row r="123" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B123" s="32"/>
       <c r="C123" s="108"/>
-      <c r="D123" s="242" t="s">
+      <c r="D123" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E123" s="121">
@@ -10995,21 +10995,21 @@
     <row r="124" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B124" s="32"/>
       <c r="C124" s="108"/>
-      <c r="D124" s="243"/>
-      <c r="E124" s="262" t="s">
+      <c r="D124" s="274"/>
+      <c r="E124" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F124" s="263"/>
-      <c r="G124" s="263"/>
-      <c r="H124" s="263"/>
-      <c r="I124" s="263"/>
-      <c r="J124" s="264"/>
+      <c r="F124" s="276"/>
+      <c r="G124" s="276"/>
+      <c r="H124" s="276"/>
+      <c r="I124" s="276"/>
+      <c r="J124" s="277"/>
       <c r="K124" s="52">
         <v>0</v>
       </c>
-      <c r="L124" s="265"/>
-      <c r="M124" s="289"/>
-      <c r="N124" s="290"/>
+      <c r="L124" s="282"/>
+      <c r="M124" s="283"/>
+      <c r="N124" s="284"/>
       <c r="O124" s="169"/>
       <c r="P124" s="32"/>
       <c r="Q124" s="32"/>
@@ -11033,20 +11033,20 @@
       <c r="G125" s="122">
         <v>1</v>
       </c>
-      <c r="H125" s="250">
+      <c r="H125" s="278">
         <v>2</v>
       </c>
-      <c r="I125" s="251"/>
+      <c r="I125" s="279"/>
       <c r="J125" s="122">
         <v>1</v>
       </c>
       <c r="K125" s="102">
         <v>1</v>
       </c>
-      <c r="L125" s="250">
+      <c r="L125" s="278">
         <v>2</v>
       </c>
-      <c r="M125" s="251"/>
+      <c r="M125" s="279"/>
       <c r="N125" s="123">
         <v>1</v>
       </c>
@@ -11073,20 +11073,20 @@
       <c r="G126" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H126" s="269" t="s">
+      <c r="H126" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I126" s="270"/>
+      <c r="I126" s="281"/>
       <c r="J126" s="94" t="s">
         <v>294</v>
       </c>
       <c r="K126" s="153" t="s">
         <v>295</v>
       </c>
-      <c r="L126" s="269" t="s">
+      <c r="L126" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="M126" s="270"/>
+      <c r="M126" s="281"/>
       <c r="N126" s="129" t="s">
         <v>297</v>
       </c>
@@ -11113,20 +11113,20 @@
       <c r="G127" s="62">
         <v>0</v>
       </c>
-      <c r="H127" s="258">
-        <v>1</v>
-      </c>
-      <c r="I127" s="259"/>
+      <c r="H127" s="268">
+        <v>1</v>
+      </c>
+      <c r="I127" s="269"/>
       <c r="J127" s="132" t="s">
         <v>354</v>
       </c>
       <c r="K127" s="154">
         <v>0</v>
       </c>
-      <c r="L127" s="272" t="s">
+      <c r="L127" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="M127" s="295"/>
+      <c r="M127" s="286"/>
       <c r="N127" s="133" t="s">
         <v>302</v>
       </c>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="131" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C131" s="108"/>
-      <c r="D131" s="242" t="s">
+      <c r="D131" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E131" s="118"/>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="132" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C132" s="108"/>
-      <c r="D132" s="243"/>
+      <c r="D132" s="274"/>
       <c r="E132" s="115" t="s">
         <v>353</v>
       </c>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="133" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C133" s="108"/>
-      <c r="D133" s="242" t="s">
+      <c r="D133" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E133" s="125">
@@ -11264,21 +11264,21 @@
     </row>
     <row r="134" spans="3:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C134" s="108"/>
-      <c r="D134" s="243"/>
-      <c r="E134" s="244" t="s">
+      <c r="D134" s="274"/>
+      <c r="E134" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F134" s="245"/>
-      <c r="G134" s="245"/>
-      <c r="H134" s="245"/>
-      <c r="I134" s="245"/>
-      <c r="J134" s="246"/>
+      <c r="F134" s="288"/>
+      <c r="G134" s="288"/>
+      <c r="H134" s="288"/>
+      <c r="I134" s="288"/>
+      <c r="J134" s="289"/>
       <c r="K134" s="147">
         <v>0</v>
       </c>
-      <c r="L134" s="247"/>
-      <c r="M134" s="248"/>
-      <c r="N134" s="249"/>
+      <c r="L134" s="290"/>
+      <c r="M134" s="291"/>
+      <c r="N134" s="292"/>
       <c r="O134" s="137"/>
     </row>
     <row r="135" spans="3:15" x14ac:dyDescent="0.4">
@@ -11295,20 +11295,20 @@
       <c r="G135" s="122">
         <v>1</v>
       </c>
-      <c r="H135" s="250">
+      <c r="H135" s="278">
         <v>2</v>
       </c>
-      <c r="I135" s="251"/>
+      <c r="I135" s="279"/>
       <c r="J135" s="122">
         <v>1</v>
       </c>
       <c r="K135" s="148">
         <v>1</v>
       </c>
-      <c r="L135" s="252">
+      <c r="L135" s="293">
         <v>2</v>
       </c>
-      <c r="M135" s="253"/>
+      <c r="M135" s="294"/>
       <c r="N135" s="123">
         <v>1</v>
       </c>
@@ -11328,20 +11328,20 @@
       <c r="G136" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H136" s="254" t="s">
+      <c r="H136" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I136" s="255"/>
+      <c r="I136" s="265"/>
       <c r="J136" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K136" s="150" t="s">
         <v>295</v>
       </c>
-      <c r="L136" s="256" t="s">
+      <c r="L136" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M136" s="257"/>
+      <c r="M136" s="267"/>
       <c r="N136" s="139" t="s">
         <v>297</v>
       </c>
@@ -11361,20 +11361,20 @@
       <c r="G137" s="62">
         <v>1</v>
       </c>
-      <c r="H137" s="258">
-        <v>1</v>
-      </c>
-      <c r="I137" s="259"/>
+      <c r="H137" s="268">
+        <v>1</v>
+      </c>
+      <c r="I137" s="269"/>
       <c r="J137" s="141" t="s">
         <v>357</v>
       </c>
       <c r="K137" s="79">
         <v>0</v>
       </c>
-      <c r="L137" s="260" t="s">
+      <c r="L137" s="270" t="s">
         <v>316</v>
       </c>
-      <c r="M137" s="261"/>
+      <c r="M137" s="271"/>
       <c r="N137" s="80" t="s">
         <v>358</v>
       </c>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="144" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C144" s="108"/>
-      <c r="D144" s="242" t="s">
+      <c r="D144" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E144" s="121">
@@ -11506,21 +11506,21 @@
     </row>
     <row r="145" spans="3:15" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C145" s="108"/>
-      <c r="D145" s="243"/>
-      <c r="E145" s="262" t="s">
+      <c r="D145" s="274"/>
+      <c r="E145" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F145" s="263"/>
-      <c r="G145" s="263"/>
-      <c r="H145" s="263"/>
-      <c r="I145" s="263"/>
-      <c r="J145" s="264"/>
+      <c r="F145" s="276"/>
+      <c r="G145" s="276"/>
+      <c r="H145" s="276"/>
+      <c r="I145" s="276"/>
+      <c r="J145" s="277"/>
       <c r="K145" s="52">
         <v>1</v>
       </c>
-      <c r="L145" s="265"/>
-      <c r="M145" s="266"/>
-      <c r="N145" s="267"/>
+      <c r="L145" s="282"/>
+      <c r="M145" s="320"/>
+      <c r="N145" s="321"/>
       <c r="O145" s="184"/>
     </row>
     <row r="146" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -11537,20 +11537,20 @@
       <c r="G146" s="122">
         <v>1</v>
       </c>
-      <c r="H146" s="250">
+      <c r="H146" s="278">
         <v>2</v>
       </c>
-      <c r="I146" s="251"/>
+      <c r="I146" s="279"/>
       <c r="J146" s="122">
         <v>1</v>
       </c>
       <c r="K146" s="200">
         <v>1</v>
       </c>
-      <c r="L146" s="250">
+      <c r="L146" s="278">
         <v>2</v>
       </c>
-      <c r="M146" s="268"/>
+      <c r="M146" s="319"/>
       <c r="N146" s="123">
         <v>1</v>
       </c>
@@ -11570,20 +11570,20 @@
       <c r="G147" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H147" s="269" t="s">
+      <c r="H147" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I147" s="270"/>
+      <c r="I147" s="281"/>
       <c r="J147" s="94" t="s">
         <v>294</v>
       </c>
       <c r="K147" s="202" t="s">
         <v>295</v>
       </c>
-      <c r="L147" s="269" t="s">
+      <c r="L147" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="M147" s="271"/>
+      <c r="M147" s="318"/>
       <c r="N147" s="129" t="s">
         <v>297</v>
       </c>
@@ -11603,20 +11603,20 @@
       <c r="G148" s="62">
         <v>0</v>
       </c>
-      <c r="H148" s="258">
-        <v>1</v>
-      </c>
-      <c r="I148" s="259"/>
+      <c r="H148" s="268">
+        <v>1</v>
+      </c>
+      <c r="I148" s="269"/>
       <c r="J148" s="132" t="s">
         <v>364</v>
       </c>
       <c r="K148" s="203">
         <v>0</v>
       </c>
-      <c r="L148" s="272" t="s">
+      <c r="L148" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="M148" s="273"/>
+      <c r="M148" s="322"/>
       <c r="N148" s="133" t="s">
         <v>302</v>
       </c>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="152" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C152" s="108"/>
-      <c r="D152" s="242" t="s">
+      <c r="D152" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E152" s="118" t="s">
@@ -11696,7 +11696,7 @@
     </row>
     <row r="153" spans="3:15" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C153" s="108"/>
-      <c r="D153" s="243"/>
+      <c r="D153" s="274"/>
       <c r="E153" s="115" t="s">
         <v>397</v>
       </c>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="154" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C154" s="108"/>
-      <c r="D154" s="242" t="s">
+      <c r="D154" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E154" s="125">
@@ -11750,21 +11750,21 @@
     </row>
     <row r="155" spans="3:15" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C155" s="108"/>
-      <c r="D155" s="243"/>
-      <c r="E155" s="244" t="s">
+      <c r="D155" s="274"/>
+      <c r="E155" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F155" s="245"/>
-      <c r="G155" s="245"/>
-      <c r="H155" s="245"/>
-      <c r="I155" s="245"/>
-      <c r="J155" s="246"/>
+      <c r="F155" s="288"/>
+      <c r="G155" s="288"/>
+      <c r="H155" s="288"/>
+      <c r="I155" s="288"/>
+      <c r="J155" s="289"/>
       <c r="K155" s="147">
         <v>0</v>
       </c>
-      <c r="L155" s="247"/>
-      <c r="M155" s="248"/>
-      <c r="N155" s="249"/>
+      <c r="L155" s="290"/>
+      <c r="M155" s="291"/>
+      <c r="N155" s="292"/>
       <c r="O155" s="137"/>
     </row>
     <row r="156" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -11781,20 +11781,20 @@
       <c r="G156" s="122">
         <v>1</v>
       </c>
-      <c r="H156" s="250">
+      <c r="H156" s="278">
         <v>2</v>
       </c>
-      <c r="I156" s="251"/>
+      <c r="I156" s="279"/>
       <c r="J156" s="122">
         <v>1</v>
       </c>
       <c r="K156" s="173">
         <v>1</v>
       </c>
-      <c r="L156" s="252">
+      <c r="L156" s="293">
         <v>2</v>
       </c>
-      <c r="M156" s="253"/>
+      <c r="M156" s="294"/>
       <c r="N156" s="123">
         <v>1</v>
       </c>
@@ -11814,20 +11814,20 @@
       <c r="G157" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H157" s="254" t="s">
+      <c r="H157" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I157" s="255"/>
+      <c r="I157" s="265"/>
       <c r="J157" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K157" s="175" t="s">
         <v>367</v>
       </c>
-      <c r="L157" s="256" t="s">
+      <c r="L157" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M157" s="257"/>
+      <c r="M157" s="267"/>
       <c r="N157" s="139" t="s">
         <v>297</v>
       </c>
@@ -11847,20 +11847,20 @@
       <c r="G158" s="62">
         <v>1</v>
       </c>
-      <c r="H158" s="258">
-        <v>1</v>
-      </c>
-      <c r="I158" s="259"/>
+      <c r="H158" s="268">
+        <v>1</v>
+      </c>
+      <c r="I158" s="269"/>
       <c r="J158" s="141" t="s">
         <v>365</v>
       </c>
       <c r="K158" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="L158" s="260" t="s">
+      <c r="L158" s="270" t="s">
         <v>316</v>
       </c>
-      <c r="M158" s="261"/>
+      <c r="M158" s="271"/>
       <c r="N158" s="80" t="s">
         <v>358</v>
       </c>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="165" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C165" s="108"/>
-      <c r="D165" s="242" t="s">
+      <c r="D165" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E165" s="121">
@@ -11993,21 +11993,21 @@
     </row>
     <row r="166" spans="3:15" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C166" s="108"/>
-      <c r="D166" s="243"/>
-      <c r="E166" s="262" t="s">
+      <c r="D166" s="274"/>
+      <c r="E166" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F166" s="263"/>
-      <c r="G166" s="263"/>
-      <c r="H166" s="263"/>
-      <c r="I166" s="263"/>
-      <c r="J166" s="264"/>
+      <c r="F166" s="276"/>
+      <c r="G166" s="276"/>
+      <c r="H166" s="276"/>
+      <c r="I166" s="276"/>
+      <c r="J166" s="277"/>
       <c r="K166" s="52">
         <v>1</v>
       </c>
-      <c r="L166" s="265"/>
-      <c r="M166" s="266"/>
-      <c r="N166" s="267"/>
+      <c r="L166" s="282"/>
+      <c r="M166" s="320"/>
+      <c r="N166" s="321"/>
       <c r="O166" s="184"/>
     </row>
     <row r="167" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -12024,20 +12024,20 @@
       <c r="G167" s="122">
         <v>1</v>
       </c>
-      <c r="H167" s="250">
+      <c r="H167" s="278">
         <v>2</v>
       </c>
-      <c r="I167" s="251"/>
+      <c r="I167" s="279"/>
       <c r="J167" s="122">
         <v>1</v>
       </c>
       <c r="K167" s="102">
         <v>1</v>
       </c>
-      <c r="L167" s="250">
+      <c r="L167" s="278">
         <v>2</v>
       </c>
-      <c r="M167" s="268"/>
+      <c r="M167" s="319"/>
       <c r="N167" s="123">
         <v>1</v>
       </c>
@@ -12057,20 +12057,20 @@
       <c r="G168" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H168" s="269" t="s">
+      <c r="H168" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I168" s="270"/>
+      <c r="I168" s="281"/>
       <c r="J168" s="94" t="s">
         <v>294</v>
       </c>
       <c r="K168" s="153" t="s">
         <v>295</v>
       </c>
-      <c r="L168" s="269" t="s">
+      <c r="L168" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="M168" s="271"/>
+      <c r="M168" s="318"/>
       <c r="N168" s="129" t="s">
         <v>297</v>
       </c>
@@ -12090,20 +12090,20 @@
       <c r="G169" s="62">
         <v>0</v>
       </c>
-      <c r="H169" s="258">
-        <v>1</v>
-      </c>
-      <c r="I169" s="259"/>
+      <c r="H169" s="268">
+        <v>1</v>
+      </c>
+      <c r="I169" s="269"/>
       <c r="J169" s="132" t="s">
         <v>362</v>
       </c>
       <c r="K169" s="154">
         <v>0</v>
       </c>
-      <c r="L169" s="272" t="s">
+      <c r="L169" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="M169" s="273"/>
+      <c r="M169" s="322"/>
       <c r="N169" s="133" t="s">
         <v>302</v>
       </c>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="173" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C173" s="108"/>
-      <c r="D173" s="242" t="s">
+      <c r="D173" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E173" s="118" t="s">
@@ -12183,7 +12183,7 @@
     </row>
     <row r="174" spans="3:15" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C174" s="108"/>
-      <c r="D174" s="243"/>
+      <c r="D174" s="274"/>
       <c r="E174" s="115" t="s">
         <v>399</v>
       </c>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="175" spans="3:15" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C175" s="108"/>
-      <c r="D175" s="242" t="s">
+      <c r="D175" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E175" s="125">
@@ -12237,21 +12237,21 @@
     </row>
     <row r="176" spans="3:15" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C176" s="108"/>
-      <c r="D176" s="243"/>
-      <c r="E176" s="244" t="s">
+      <c r="D176" s="274"/>
+      <c r="E176" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F176" s="245"/>
-      <c r="G176" s="245"/>
-      <c r="H176" s="245"/>
-      <c r="I176" s="245"/>
-      <c r="J176" s="246"/>
+      <c r="F176" s="288"/>
+      <c r="G176" s="288"/>
+      <c r="H176" s="288"/>
+      <c r="I176" s="288"/>
+      <c r="J176" s="289"/>
       <c r="K176" s="147">
         <v>0</v>
       </c>
-      <c r="L176" s="247"/>
-      <c r="M176" s="248"/>
-      <c r="N176" s="249"/>
+      <c r="L176" s="290"/>
+      <c r="M176" s="291"/>
+      <c r="N176" s="292"/>
       <c r="O176" s="137"/>
     </row>
     <row r="177" spans="3:16" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -12268,20 +12268,20 @@
       <c r="G177" s="122">
         <v>1</v>
       </c>
-      <c r="H177" s="250">
+      <c r="H177" s="278">
         <v>2</v>
       </c>
-      <c r="I177" s="251"/>
+      <c r="I177" s="279"/>
       <c r="J177" s="122">
         <v>1</v>
       </c>
       <c r="K177" s="148">
         <v>1</v>
       </c>
-      <c r="L177" s="252">
+      <c r="L177" s="293">
         <v>2</v>
       </c>
-      <c r="M177" s="253"/>
+      <c r="M177" s="294"/>
       <c r="N177" s="123">
         <v>1</v>
       </c>
@@ -12301,20 +12301,20 @@
       <c r="G178" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H178" s="254" t="s">
+      <c r="H178" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I178" s="255"/>
+      <c r="I178" s="265"/>
       <c r="J178" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K178" s="150" t="s">
         <v>367</v>
       </c>
-      <c r="L178" s="256" t="s">
+      <c r="L178" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M178" s="257"/>
+      <c r="M178" s="267"/>
       <c r="N178" s="139" t="s">
         <v>297</v>
       </c>
@@ -12334,20 +12334,20 @@
       <c r="G179" s="62">
         <v>1</v>
       </c>
-      <c r="H179" s="258">
-        <v>1</v>
-      </c>
-      <c r="I179" s="259"/>
+      <c r="H179" s="268">
+        <v>1</v>
+      </c>
+      <c r="I179" s="269"/>
       <c r="J179" s="141" t="s">
         <v>363</v>
       </c>
       <c r="K179" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="L179" s="260" t="s">
+      <c r="L179" s="270" t="s">
         <v>316</v>
       </c>
-      <c r="M179" s="261"/>
+      <c r="M179" s="271"/>
       <c r="N179" s="80" t="s">
         <v>358</v>
       </c>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="185" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C185" s="108"/>
-      <c r="D185" s="242" t="s">
+      <c r="D185" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E185" s="163" t="s">
@@ -12447,7 +12447,7 @@
     </row>
     <row r="186" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C186" s="108"/>
-      <c r="D186" s="300"/>
+      <c r="D186" s="273"/>
       <c r="E186" s="179" t="s">
         <v>383</v>
       </c>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="187" spans="3:16" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C187" s="108"/>
-      <c r="D187" s="243"/>
+      <c r="D187" s="274"/>
       <c r="E187" s="166" t="s">
         <v>384</v>
       </c>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="188" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C188" s="108"/>
-      <c r="D188" s="242" t="s">
+      <c r="D188" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E188" s="121">
@@ -12523,24 +12523,24 @@
     </row>
     <row r="189" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C189" s="108"/>
-      <c r="D189" s="243"/>
-      <c r="E189" s="262" t="s">
+      <c r="D189" s="274"/>
+      <c r="E189" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F189" s="263"/>
-      <c r="G189" s="263"/>
-      <c r="H189" s="263"/>
-      <c r="I189" s="263"/>
-      <c r="J189" s="264"/>
+      <c r="F189" s="276"/>
+      <c r="G189" s="276"/>
+      <c r="H189" s="276"/>
+      <c r="I189" s="276"/>
+      <c r="J189" s="277"/>
       <c r="K189" s="52">
         <v>0</v>
       </c>
       <c r="L189" s="52">
         <v>1</v>
       </c>
-      <c r="M189" s="265"/>
-      <c r="N189" s="289"/>
-      <c r="O189" s="290"/>
+      <c r="M189" s="282"/>
+      <c r="N189" s="283"/>
+      <c r="O189" s="284"/>
       <c r="P189" s="182"/>
     </row>
     <row r="190" spans="3:16" x14ac:dyDescent="0.4">
@@ -12557,10 +12557,10 @@
       <c r="G190" s="122">
         <v>1</v>
       </c>
-      <c r="H190" s="250">
+      <c r="H190" s="278">
         <v>2</v>
       </c>
-      <c r="I190" s="251"/>
+      <c r="I190" s="279"/>
       <c r="J190" s="122">
         <v>1</v>
       </c>
@@ -12570,10 +12570,10 @@
       <c r="L190" s="102">
         <v>1</v>
       </c>
-      <c r="M190" s="250">
+      <c r="M190" s="278">
         <v>2</v>
       </c>
-      <c r="N190" s="251"/>
+      <c r="N190" s="279"/>
       <c r="O190" s="123">
         <v>1</v>
       </c>
@@ -12593,10 +12593,10 @@
       <c r="G191" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H191" s="269" t="s">
+      <c r="H191" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I191" s="270"/>
+      <c r="I191" s="281"/>
       <c r="J191" s="94" t="s">
         <v>294</v>
       </c>
@@ -12606,10 +12606,10 @@
       <c r="L191" s="153" t="s">
         <v>295</v>
       </c>
-      <c r="M191" s="269" t="s">
+      <c r="M191" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="N191" s="270"/>
+      <c r="N191" s="281"/>
       <c r="O191" s="129" t="s">
         <v>297</v>
       </c>
@@ -12629,10 +12629,10 @@
       <c r="G192" s="62">
         <v>0</v>
       </c>
-      <c r="H192" s="258">
+      <c r="H192" s="268">
         <v>2</v>
       </c>
-      <c r="I192" s="259"/>
+      <c r="I192" s="269"/>
       <c r="J192" s="132" t="s">
         <v>386</v>
       </c>
@@ -12642,10 +12642,10 @@
       <c r="L192" s="189" t="s">
         <v>374</v>
       </c>
-      <c r="M192" s="272" t="s">
+      <c r="M192" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="N192" s="295"/>
+      <c r="N192" s="286"/>
       <c r="O192" s="133" t="s">
         <v>302</v>
       </c>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="196" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C196" s="108"/>
-      <c r="D196" s="242" t="s">
+      <c r="D196" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E196" s="118"/>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="197" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C197" s="108"/>
-      <c r="D197" s="243"/>
+      <c r="D197" s="274"/>
       <c r="E197" s="115" t="s">
         <v>388</v>
       </c>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="198" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C198" s="108"/>
-      <c r="D198" s="242" t="s">
+      <c r="D198" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E198" s="125">
@@ -12783,21 +12783,21 @@
     </row>
     <row r="199" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C199" s="108"/>
-      <c r="D199" s="243"/>
-      <c r="E199" s="244" t="s">
+      <c r="D199" s="274"/>
+      <c r="E199" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F199" s="245"/>
-      <c r="G199" s="245"/>
-      <c r="H199" s="245"/>
-      <c r="I199" s="245"/>
-      <c r="J199" s="246"/>
+      <c r="F199" s="288"/>
+      <c r="G199" s="288"/>
+      <c r="H199" s="288"/>
+      <c r="I199" s="288"/>
+      <c r="J199" s="289"/>
       <c r="K199" s="147">
         <v>0</v>
       </c>
-      <c r="L199" s="247"/>
-      <c r="M199" s="248"/>
-      <c r="N199" s="249"/>
+      <c r="L199" s="290"/>
+      <c r="M199" s="291"/>
+      <c r="N199" s="292"/>
       <c r="O199" s="136"/>
       <c r="P199" s="182"/>
     </row>
@@ -12815,20 +12815,20 @@
       <c r="G200" s="122">
         <v>1</v>
       </c>
-      <c r="H200" s="250">
+      <c r="H200" s="278">
         <v>2</v>
       </c>
-      <c r="I200" s="251"/>
+      <c r="I200" s="279"/>
       <c r="J200" s="122">
         <v>1</v>
       </c>
       <c r="K200" s="148">
         <v>1</v>
       </c>
-      <c r="L200" s="252">
+      <c r="L200" s="293">
         <v>2</v>
       </c>
-      <c r="M200" s="253"/>
+      <c r="M200" s="294"/>
       <c r="N200" s="123">
         <v>1</v>
       </c>
@@ -12849,20 +12849,20 @@
       <c r="G201" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H201" s="254" t="s">
+      <c r="H201" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I201" s="255"/>
+      <c r="I201" s="265"/>
       <c r="J201" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K201" s="150" t="s">
         <v>295</v>
       </c>
-      <c r="L201" s="256" t="s">
+      <c r="L201" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M201" s="257"/>
+      <c r="M201" s="267"/>
       <c r="N201" s="139" t="s">
         <v>297</v>
       </c>
@@ -12883,20 +12883,20 @@
       <c r="G202" s="62">
         <v>1</v>
       </c>
-      <c r="H202" s="258">
-        <v>1</v>
-      </c>
-      <c r="I202" s="259"/>
+      <c r="H202" s="268">
+        <v>1</v>
+      </c>
+      <c r="I202" s="269"/>
       <c r="J202" s="141" t="s">
         <v>387</v>
       </c>
       <c r="K202" s="79">
         <v>0</v>
       </c>
-      <c r="L202" s="260" t="s">
+      <c r="L202" s="270" t="s">
         <v>316</v>
       </c>
-      <c r="M202" s="261"/>
+      <c r="M202" s="271"/>
       <c r="N202" s="80" t="s">
         <v>358</v>
       </c>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="208" spans="3:16" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C208" s="108"/>
-      <c r="D208" s="242" t="s">
+      <c r="D208" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E208" s="163" t="s">
@@ -12994,7 +12994,7 @@
     </row>
     <row r="209" spans="3:16" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C209" s="108"/>
-      <c r="D209" s="300"/>
+      <c r="D209" s="273"/>
       <c r="E209" s="166" t="s">
         <v>390</v>
       </c>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="210" spans="3:16" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C210" s="108"/>
-      <c r="D210" s="242" t="s">
+      <c r="D210" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E210" s="121">
@@ -13048,21 +13048,21 @@
     </row>
     <row r="211" spans="3:16" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C211" s="108"/>
-      <c r="D211" s="243"/>
-      <c r="E211" s="262" t="s">
+      <c r="D211" s="274"/>
+      <c r="E211" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="F211" s="263"/>
-      <c r="G211" s="263"/>
-      <c r="H211" s="263"/>
-      <c r="I211" s="263"/>
-      <c r="J211" s="264"/>
+      <c r="F211" s="276"/>
+      <c r="G211" s="276"/>
+      <c r="H211" s="276"/>
+      <c r="I211" s="276"/>
+      <c r="J211" s="277"/>
       <c r="K211" s="52">
         <v>0</v>
       </c>
-      <c r="L211" s="265"/>
-      <c r="M211" s="289"/>
-      <c r="N211" s="290"/>
+      <c r="L211" s="282"/>
+      <c r="M211" s="283"/>
+      <c r="N211" s="284"/>
       <c r="P211" s="182"/>
     </row>
     <row r="212" spans="3:16" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -13079,20 +13079,20 @@
       <c r="G212" s="122">
         <v>1</v>
       </c>
-      <c r="H212" s="250">
+      <c r="H212" s="278">
         <v>2</v>
       </c>
-      <c r="I212" s="251"/>
+      <c r="I212" s="279"/>
       <c r="J212" s="122">
         <v>1</v>
       </c>
       <c r="K212" s="190">
         <v>1</v>
       </c>
-      <c r="L212" s="250">
+      <c r="L212" s="278">
         <v>2</v>
       </c>
-      <c r="M212" s="251"/>
+      <c r="M212" s="279"/>
       <c r="N212" s="123">
         <v>1</v>
       </c>
@@ -13112,20 +13112,20 @@
       <c r="G213" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="H213" s="269" t="s">
+      <c r="H213" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I213" s="270"/>
+      <c r="I213" s="281"/>
       <c r="J213" s="94" t="s">
         <v>294</v>
       </c>
       <c r="K213" s="191" t="s">
         <v>367</v>
       </c>
-      <c r="L213" s="269" t="s">
+      <c r="L213" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="M213" s="270"/>
+      <c r="M213" s="281"/>
       <c r="N213" s="129" t="s">
         <v>297</v>
       </c>
@@ -13145,20 +13145,20 @@
       <c r="G214" s="62">
         <v>0</v>
       </c>
-      <c r="H214" s="258">
+      <c r="H214" s="268">
         <v>2</v>
       </c>
-      <c r="I214" s="259"/>
+      <c r="I214" s="269"/>
       <c r="J214" s="132" t="s">
         <v>400</v>
       </c>
       <c r="K214" s="189" t="s">
         <v>361</v>
       </c>
-      <c r="L214" s="272" t="s">
+      <c r="L214" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="M214" s="295"/>
+      <c r="M214" s="286"/>
       <c r="N214" s="133" t="s">
         <v>302</v>
       </c>
@@ -13222,7 +13222,7 @@
     </row>
     <row r="218" spans="3:16" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C218" s="108"/>
-      <c r="D218" s="242" t="s">
+      <c r="D218" s="272" t="s">
         <v>284</v>
       </c>
       <c r="E218" s="118"/>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="219" spans="3:16" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C219" s="108"/>
-      <c r="D219" s="243"/>
+      <c r="D219" s="274"/>
       <c r="E219" s="115" t="s">
         <v>389</v>
       </c>
@@ -13258,7 +13258,7 @@
     </row>
     <row r="220" spans="3:16" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C220" s="108"/>
-      <c r="D220" s="242" t="s">
+      <c r="D220" s="272" t="s">
         <v>286</v>
       </c>
       <c r="E220" s="125">
@@ -13296,21 +13296,21 @@
     </row>
     <row r="221" spans="3:16" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C221" s="108"/>
-      <c r="D221" s="243"/>
-      <c r="E221" s="244" t="s">
+      <c r="D221" s="274"/>
+      <c r="E221" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="F221" s="245"/>
-      <c r="G221" s="245"/>
-      <c r="H221" s="245"/>
-      <c r="I221" s="245"/>
-      <c r="J221" s="246"/>
+      <c r="F221" s="288"/>
+      <c r="G221" s="288"/>
+      <c r="H221" s="288"/>
+      <c r="I221" s="288"/>
+      <c r="J221" s="289"/>
       <c r="K221" s="147">
         <v>0</v>
       </c>
-      <c r="L221" s="247"/>
-      <c r="M221" s="248"/>
-      <c r="N221" s="249"/>
+      <c r="L221" s="290"/>
+      <c r="M221" s="291"/>
+      <c r="N221" s="292"/>
       <c r="O221" s="136"/>
       <c r="P221" s="182"/>
     </row>
@@ -13328,20 +13328,20 @@
       <c r="G222" s="122">
         <v>1</v>
       </c>
-      <c r="H222" s="250">
+      <c r="H222" s="278">
         <v>2</v>
       </c>
-      <c r="I222" s="251"/>
+      <c r="I222" s="279"/>
       <c r="J222" s="122">
         <v>1</v>
       </c>
       <c r="K222" s="173">
         <v>1</v>
       </c>
-      <c r="L222" s="252">
+      <c r="L222" s="293">
         <v>2</v>
       </c>
-      <c r="M222" s="253"/>
+      <c r="M222" s="294"/>
       <c r="N222" s="123">
         <v>1</v>
       </c>
@@ -13362,20 +13362,20 @@
       <c r="G223" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H223" s="254" t="s">
+      <c r="H223" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="I223" s="255"/>
+      <c r="I223" s="265"/>
       <c r="J223" s="57" t="s">
         <v>294</v>
       </c>
       <c r="K223" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="L223" s="256" t="s">
+      <c r="L223" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="M223" s="257"/>
+      <c r="M223" s="267"/>
       <c r="N223" s="139" t="s">
         <v>297</v>
       </c>
@@ -13396,20 +13396,20 @@
       <c r="G224" s="62">
         <v>1</v>
       </c>
-      <c r="H224" s="258">
-        <v>1</v>
-      </c>
-      <c r="I224" s="259"/>
+      <c r="H224" s="268">
+        <v>1</v>
+      </c>
+      <c r="I224" s="269"/>
       <c r="J224" s="141" t="s">
         <v>401</v>
       </c>
       <c r="K224" s="79">
         <v>0</v>
       </c>
-      <c r="L224" s="260" t="s">
+      <c r="L224" s="270" t="s">
         <v>316</v>
       </c>
-      <c r="M224" s="261"/>
+      <c r="M224" s="271"/>
       <c r="N224" s="80" t="s">
         <v>358</v>
       </c>
@@ -13434,26 +13434,170 @@
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="L223:M223"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="L224:M224"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E211:J211"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="L211:N211"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="L214:M214"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="E221:J221"/>
-    <mergeCell ref="L221:N221"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="L222:M222"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E155:J155"/>
+    <mergeCell ref="L155:N155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E145:J145"/>
+    <mergeCell ref="L145:N145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="L166:N166"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E102:J102"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E112:J112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="P102:R102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="L134:N134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E189:J189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="M189:O189"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E199:J199"/>
+    <mergeCell ref="L199:N199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="L202:M202"/>
     <mergeCell ref="H179:I179"/>
     <mergeCell ref="L179:M179"/>
     <mergeCell ref="L44:N44"/>
@@ -13478,170 +13622,26 @@
     <mergeCell ref="H137:I137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E199:J199"/>
-    <mergeCell ref="L199:N199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E189:J189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="M189:O189"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="E134:J134"/>
-    <mergeCell ref="L134:N134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E124:J124"/>
-    <mergeCell ref="L124:N124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="P102:R102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E102:J102"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="L166:N166"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E145:J145"/>
-    <mergeCell ref="L145:N145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E155:J155"/>
-    <mergeCell ref="L155:N155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="L223:M223"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="L224:M224"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E211:J211"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="L211:N211"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="L214:M214"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="E221:J221"/>
+    <mergeCell ref="L221:N221"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="L222:M222"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
